--- a/src/test/test-data/ProjectContainerTest.xlsx
+++ b/src/test/test-data/ProjectContainerTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="19440" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="19440" windowHeight="5385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project - Owner" sheetId="1" r:id="rId1"/>
@@ -182,9 +182,6 @@
     <t>X-1P-User=(SYS_USER2)</t>
   </si>
   <si>
-    <t>OPQA-BBB4</t>
-  </si>
-  <si>
     <t>status=500||errorcode=500</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
   </si>
   <si>
     <t>hits.hits[0]._id||hits.hits[1]._id||hits.hits[2]._id</t>
-  </si>
-  <si>
-    <t>OPQA-Z11</t>
   </si>
   <si>
     <t>?filter=count&amp;type=project</t>
@@ -250,117 +244,12 @@
     <t>Verify that unauthorized user/member can't update project's title or description and check the error status using container API</t>
   </si>
   <si>
-    <t>OPQA-PPP1</t>
-  </si>
-  <si>
-    <t>/container/(OPQA-PPP1_id)</t>
-  </si>
-  <si>
-    <t>id=(OPQA-PPP1_id)||ispublic=false</t>
-  </si>
-  <si>
-    <t>OPQA-PPP1||OPQA-896</t>
-  </si>
-  <si>
-    <t>/container/(OPQA-PPP1_id)/items</t>
-  </si>
-  <si>
-    <t>OPQA-PPP10</t>
-  </si>
-  <si>
-    <t>OPQA-PPP1||OPQA-896||OPQA-897||OPQA-898</t>
-  </si>
-  <si>
-    <t>OPQA-PPP11</t>
-  </si>
-  <si>
-    <t>OPQA-PPP12</t>
-  </si>
-  <si>
-    <t>/container/(OPQA-PPP1_id)/items?itemType=wos&amp;sortoption=latestupdated</t>
-  </si>
-  <si>
-    <t>OPQA-PPP13</t>
-  </si>
-  <si>
-    <t>/container/(OPQA-PPP1_id)/items/(OPQA-896_hits.hits[0]._id)</t>
-  </si>
-  <si>
-    <t>OPQA-PPP13_1</t>
-  </si>
-  <si>
-    <t>OPQA-PPP14</t>
-  </si>
-  <si>
-    <t>OPQA-PP22</t>
-  </si>
-  <si>
-    <t>/container/(OPQA-PP22_id)/items</t>
-  </si>
-  <si>
-    <t>OPQA-PP22||OPQA-896||OPQA-897||OPQA-898</t>
-  </si>
-  <si>
-    <t>OPQA-PPP1||OPQA-PP22||OPQA-896</t>
-  </si>
-  <si>
-    <t>status=200||userId=(SYS_USER1)||containerId=(OPQA-PPP1_id)||containerId=(OPQA-PP22_id)</t>
-  </si>
-  <si>
-    <t>OPQA-PPP1||OPQA-PP22</t>
-  </si>
-  <si>
-    <t>/container/(OPQA-PP22_id)/items/(OPQA-896_hits.hits[0]._id)</t>
-  </si>
-  <si>
-    <t>OPQA-PP22||OPQA-896</t>
-  </si>
-  <si>
-    <t>/container/(OPQA-PP22_id)</t>
-  </si>
-  <si>
     <t>status=200||type=project||name=Project1 about cancer updated title from API||desc=Cancer is a group of diseases involving abnormal cell growth with the potential to invade or spread to other parts of the body.[1][2] Not all tumors are cancerous; benign tumors do not spread to other parts of the body.[2] Possible signs and symptoms include a lump, abnormal bleeding, prolonged cough, unexplained weight loss and a change in bowel movements.[3] While these symptoms may indicate cancer, they may have other causes.[3] Over 100 cancers affect humans.||userid=(SYS_USER1)||isOwner=false||ispublic=false</t>
   </si>
   <si>
     <t>status=200||type=project||name=Project2 from API about multiple projects test||desc=API test for creation of multiple projects for the same user.||userid=(SYS_USER1)||isOwner=false||ispublic=false</t>
   </si>
   <si>
-    <t>OPQA-PPP2</t>
-  </si>
-  <si>
-    <t>OPQA-PPP20</t>
-  </si>
-  <si>
-    <t>OPQA-PPP3</t>
-  </si>
-  <si>
-    <t>OPQA-PPP31</t>
-  </si>
-  <si>
-    <t>OPQA-PPP35</t>
-  </si>
-  <si>
-    <t>OPQA-PPP30</t>
-  </si>
-  <si>
-    <t>OPQA-PPP32</t>
-  </si>
-  <si>
-    <t>OPQA-PPP33</t>
-  </si>
-  <si>
-    <t>OPQA-PPP34</t>
-  </si>
-  <si>
-    <t>OPQA-QQQ1</t>
-  </si>
-  <si>
-    <t>OPQA-PPP4</t>
-  </si>
-  <si>
-    <t>OPQA-RRR1</t>
-  </si>
-  <si>
     <t>Verify that project owner is able to add project cover photo to exisintg project using container API</t>
   </si>
   <si>
@@ -370,9 +259,6 @@
     <t>status=200||type=project||name=Project2 from API about multiple projects test||desc=API test for creation of multiple projects for the same user.||userid=(SYS_USER1)||isOwner=false||ispublic=false||imgtype=image/jpeg</t>
   </si>
   <si>
-    <t>OPQA-RRR2</t>
-  </si>
-  <si>
     <t>Verify that project owner is able to update project cover photo to exisintg project using container API</t>
   </si>
   <si>
@@ -388,33 +274,18 @@
     <t>Verify that every user project is private by default</t>
   </si>
   <si>
-    <t>OPQA-PPP5</t>
-  </si>
-  <si>
     <t>Verify that user is able to make project as public using container API</t>
   </si>
   <si>
-    <t>OPQA-PPP6</t>
-  </si>
-  <si>
-    <t>status=200||id=(OPQA-PP22_id)||type=project||userid=(SYS_USER1)||ispublic=true||isOwner=false</t>
-  </si>
-  <si>
     <t>groupid</t>
   </si>
   <si>
     <t xml:space="preserve">Verify that project's public, private counts are shown properly after updating the status using container API. </t>
   </si>
   <si>
-    <t>OPQA-PPP6||OPQA-PP22</t>
-  </si>
-  <si>
     <t>?responseType=regular&amp;type=project</t>
   </si>
   <si>
-    <t>OPQA-PPP7</t>
-  </si>
-  <si>
     <t>Verify that user able to see particular item added status to a project using container API</t>
   </si>
   <si>
@@ -424,27 +295,15 @@
     <t>?type=project</t>
   </si>
   <si>
-    <t>OPQA-QQQ2</t>
-  </si>
-  <si>
     <t>Verify that unauthorized user is not able to add an item to others project and check the error status using container API</t>
   </si>
   <si>
-    <t>OPQA-PPP9</t>
-  </si>
-  <si>
-    <t>OPQA-PPP8</t>
-  </si>
-  <si>
     <t>Verify that owner is able to add multiple items like patent, post, wos to a particular project using container API</t>
   </si>
   <si>
     <t>Verify that owner is able to add multiple items like patent, post, wos to a multiple watchlists using container API</t>
   </si>
   <si>
-    <t>OPQA-PPP10_1</t>
-  </si>
-  <si>
     <t>?itemType=wos&amp;containerType=project</t>
   </si>
   <si>
@@ -457,12 +316,6 @@
     <t>Verify that container API returns list of user ids with project ids who are added a particular item to their projects</t>
   </si>
   <si>
-    <t>OPQA-LLL1</t>
-  </si>
-  <si>
-    <t>OPQA-QQQ5</t>
-  </si>
-  <si>
     <t>Verify that container metadata and content doesn't returned for a given project id without passing userid and check the error status using container API</t>
   </si>
   <si>
@@ -472,36 +325,21 @@
     <t>Verify that get project container details by group id works as expected using container API</t>
   </si>
   <si>
-    <t>/container/(SYS_USER1)/ByGroup/(OPQA-PPP6_groupid)</t>
-  </si>
-  <si>
     <t>Verify that owner is able to remove an item from a particular project using container API</t>
   </si>
   <si>
     <t>Verify that user is not able to remove an item from others project and check the error status using container API</t>
   </si>
   <si>
-    <t>OPQA-QQQ3</t>
-  </si>
-  <si>
     <t>Verify that user is not able to delete others project and check the error status using container API</t>
   </si>
   <si>
-    <t>OPQA-PPP20_1</t>
-  </si>
-  <si>
     <t>Verify that deleted project can't be deleted  and check the error status using container API</t>
   </si>
   <si>
     <t>Verify that owner is able to get project item exists status  properly for the removed item from particular project using container API</t>
   </si>
   <si>
-    <t>OPQA-QQQ4</t>
-  </si>
-  <si>
-    <t>OPQA-PPP37</t>
-  </si>
-  <si>
     <t>Verify that owner is able to get project item exists status  properly for the removed item from particular project using container's responseType as modal API</t>
   </si>
   <si>
@@ -511,33 +349,12 @@
     <t>status=200||type=project||name=Project1 about cancer updated title from API||desc=Project1 about cancer updated description from API||userid=(SYS_USER1)||isOwner=false||ispublic=false</t>
   </si>
   <si>
-    <t>status=200||public_count=1||private_count=1||total_count=2||public[0].id=(OPQA-PP22_id)||private[0].id=(OPQA-PPP1_id)</t>
-  </si>
-  <si>
-    <t>status=200||public[0].id=(OPQA-PP22_id)||public[0].groupid=(OPQA-PPP6_groupid)||public[0].type=project</t>
-  </si>
-  <si>
-    <t>OPQA-PPP1_1</t>
-  </si>
-  <si>
     <t>{ "name": "Project3 about testing invitations From API", "desc": "This project is about to invite new members into the project and testing member permissions like adding items, documents to the project etc..", "type": "project", "image": "data:image/jpeg;base64,/9j/4AAQSkZJRgABAQEASABIAAD/2wBDAAYEBQYFBAYGBQYHBwYIChAKCgkJChQODwwQFxQYGBcUFhYaHSUfGhsjHBYWICwgIyYnKSopGR8tMC0oMCUoKSj/2wBDAQcHBwoIChMKChMoGhYaKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCgoKCj/wAARCAD6APoDASIAAhEBAxEB/8QAHAAAAQUBAQEAAAAAAAAAAAAAAAIDBAUGBwEI/8QAPRAAAQMDAgQDBgMGBgIDAAAAAQACAwQFEQYhEjFBURNhcQcUIoGRoTKxwRUjQlJi4TNDU3LR8QglssLi/8QAGwEBAAEFAQAAAAAAAAAAAAAAAAMCBAUGBwH/xAAwEQACAQMDAgUDAwQDAAAAAAAAAQIDBBEFITESQQYTIlGBMmFxobHBFJHR4QcV8P/aAAwDAQACEQMRAD8A+qUIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCM45poTtP4cu9AgHUJtkrHnAO/bqnEAIQhACEIQAhCEAIQhACEIQAhCEAIQhACEIQAhCEAIQhACEIQAhCEAIQhACEIQFTcqkGtipAcAt43+YzsPzVnHw8A4cYwsbq6c22901UdoZ4/D4ugc08vofspEF9YY/wAaAt71IImeJE7hkZuCFNt9SKujhqG8pGg47HqsHf7+xsD/AIt1stN08lNYqKGYESiMF4PQncj7oCzQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAExVzsp4HSSHYbDzJ5J9ZT2g1Hh22GHJHG8uJHZo/uEA1qOd1zt8lLPDC+F/TfLT0IPQjuua1NtvNK/gpp45GdPEyCPoriyXKtZbKOWvxwVTHSQu7tDy0Z89gfmFYisY94JwgIejaCnhuLai/mWWojdxRANzCw9CRzJH0XWIZY5ow+J4ew8iDlYKGppmAOfgKxtt7pG1EIpJg7jkax7Ry3OEBsUIQgBCEIAQhCAEIQgBCEIAQhCAEIQgBCEIAUerqG07W9XuOGt7lSFnbxVCK907JD8Ii4h653QF2yN7m5lecnoNgFHq3zUo8RhL2DctcnYKtjowSVButawROGUBZUk8dTA2WI5Y77eSeWa0XUmeCuaN2MnwPm0ErSoAQhCAEIRlACwHtNmcI3EAlsUDj8z/0t6Xt7hYPXQFVWxUOcGqmhgOOgcd/sSmQQtT20Uvs7sszBh1DHCHeQeAD9yFj46twaDldE9r9W2k0HWNwB4r4om+Xxh35NXDIbziIYccDYrxtLk8bS5LrU10nFAYadxEspEbcc8nZbesoI7JfnUkADY4hA8Y5fhAP1LSfmuUe9vq7jSOByI5Wv+hBXZ9asdNqSqMY/BTRgnzJdhenp0kckJDM8DcjfAyloAQhCAEIQgBCEIAQhCAEIQgBCEIAQhCAFnNX2uespmVNBvWU2S1n+o082+u2y0aQ9wa0ucQGgZJPRAcrg1Q2MuimLo5W7OY8cLgfMFQLlqY1DhBS5lnfs1jdySrvU8EV+uHi1FNG+Fnwx8TRnHf5qlZb6a1yE08bI8/yjCA1+gallKDapS01b2mpc4dTkAj5bfRbZcNsl6FNrmGZzsRs4WvP9Lsg/nn5LuQQAheZXhKA9KyvtDu09o08+aleI5pHtia/qM55eey0+VzX/AMgXcPs6nkBwWVMLs9viVvc58mXS8PDILlN0pdLw8HNpqmolmM0k8zpc5L3POc+q0WkrrUXDVtlgr5nSCF75C+U9GxnGT5Llmmqi71tRG8uk9yb+J8vJw7DPNa0tWn0LqdjV6vq91n9zUaNzOxq9Wer3WTee12+0F2oIbXRziZ7JvEkdHu0YBGM9Tv0XMW0jWMDWNAaOiseFRbjUNoqKapkblsbc47ry5v611JZ+Eim5v6t1JZ+ENU1GyOqifksaHAuA5YyuxaemGotT1dVEeKl94MvFjmxmGsHzIz6ZXzi7VdS55LXRsB6Bo/VfQHsvulJZfZ1QXa6TOEle92C1pc44c4AYHoSs5plxVgnGvL0pZy+3yZzTa9aClGvL0pZy+3ydUJ8koHIVZaLvR3WnE9DM2RmcHHMHsR0VgHLNxkppSi8ozMZKa6ovKHELwFegqoqBCEIAQgnAUYVLXkiIOkx1byQElCY8doOHhzP93JPhACEIQAhCEAIQhACgXU8ULIeIDxXcJ8xzKnqg1iXR2+CVmQ5kzd/UEICqvs1NRANLmh3ZYG93APf8JVBrKqqTqeJ3iv4AzcZ2O6i3CsDIuN7hsMoDUHTErbNQ6lgY6VjmvFXENzwBxDXjuAM58sHuun6QvEVwoWRCQOexo4TnPE3+y90JLHLomxPiOWvooj8y0Z++Vj9T2yfStxbc7Tllukky5jRtA8//AFP25dQgOml2AotbX01GziqZ2RD+o7n0Cw1115B+y6YxStpquZxY/i/hwM5HrnZUMdU2tJlbOJz1dxcRWA1XWv6OXlQhmXu+DJWenf1EeuUsL9TX3rWkdJSTS0NK+pcwZ+I8Ix1PU7c1zrUGp7jf4HU9a6L3R5BMDGDgODkZzknfBV2FmrrbjRyOkgaTSu3wB/hnt6du3LstblrFxc5jUlhey2Ri/EulVoUVUtW+lfUv5/0V+OiMKws9E2snd4vEYmDJx1PbKvJLVRPZwmBrexbsR81Zzrxi8M13TvDNzfUfPTUU+M53/wAGTwm6injqYJIZmB8TwWuaeoUmePwaqeEu4jE/h4u+wP13ScKVPujAVqU7erKnLaUXh/lGEqtBZmJpK8tiJ2bIzJHzB3W6o5J4NPW20Pm8SmoWuEfw4yXHJJ+q9UaurKehh8WqlbG07DPMnyHVXUrqtUj5bec/qTxrXFxijDMm9sJbv7bLLLrT94qLJcWVVKcjlJGTgSN7H9Cu3Wq4wXKhiq6V3FHKMjuD1B8wvlCv1c5xLaCAAcg+Xc/Qf8rReyn2iT2W9mlvdS59srHAFzuUL+jgByHQ/I9Fm9IlWoPoqfS/0Z0HRvCGs0redatDphjKi3v8JZ/sfTYelNcocUge0EEEEZBB5hN11xpbbTOqa+phpoG/ikleGtHzK2XOCNRcn0pblkD2SgVmbXrLT11qRBbrzRzznYRtkHEfQHn8lomvyMheKSlwyqpSqUn01ItP7pr9ysvNSRNBSNOPEy5/oOnzVnTta2JoaABhZPV8xorrQ1LsiORhiz/UDkD6E/RTqK8MMY+IL0oLytDTC7iVfZasyungccuhIIP9J/6Vdcbw0Ru+IJjQ8jquruNX/lZbE09yMk/mEBr0IQgBCEIAQhCAFUapZ4liqh1aA/6EFWpKYqGMmifFKOKN4LXDuCgPn/WFI51wErRyYufXyslmeKaM4ceZ7Bd81P4NnmFJWwNrKKRnG1xAD27kEeeNt9ua55XUdhpzHW22FlQzxy8h5PE04A4fQbHHTKhuK3kUpVGs4WSSlT82agnjJsNE6mmt+gbXQshd75Ex0eZBs1vEeE467EJMtfV1c3FWTSzseQ18Zdhrmk7jHLllV9vqoK2PigfuPxNPMKc1nkuf3erXFer1TeEnsllL/ZtVKyo0odKWW+/c5t7Snz2yobRv50lQWcQ/iaWnhd6EYKb9mktbVXp8rA/3NkbhK8/hJPIeZyui1lso64g1tLDOQAMyN4th0UqCGKCJsUEbIo28msaAB8gpb/VoXSbjDDaw8kFvayoelyyhYSgEAL0LAl7kiV05o6KaaOMPLBnhG3qf1VM+9VTmkNETc/xBuf1WlOMKkr7KMl9FhveI7D5dvT8lNRlDiaNc12jqDgp2EsY5isZf3W3JR8y5xJLnEuJPMk9Ul7mxsLnuDWtGSXHAATdxqorbC+WtJiDObXD4iewHUrnt8vU90kLTmOmB+GIH7nuVlre2lWe3Huah4f8ACl9r9xJYcYp+qUk9n7b8s20F7t9RVNp4agOkccDAOD6FQ7/YDdahs7akxuawN4CMjn07LD0NQaSshqA3i8N4dg9cFdAg1DbJog81TIiebZPhI/5+SuK1vO3mpUs/ubFrfhq98K3lK50nqmsP1YTw+6wk+VwYa72motMrG1HCWvzwPachyrye60WrLzFcjDBSAmKJxcXuGOI4xsO3NZ3ORvzWVt5TlTTmsM694Zu7+80+FXUYdNR52xjK7Nrs2dW9m3tWksVPFbL62Wot8Y4YZmbyQj+Uj+Jv3Hmqz2x61ptW3Cijtb5jQUsZOXAtD5HHc8PkABnzK53kAlM1TXuhe2N3DIR8JV5503Dy29iR6LaUbl30IerfZcZffHuOB7mPDmvLXA5BBwR5r629kuov2/ou1y1NUJ64RcMjs7vLXEA+ZIAJXw7U1FSwujmc4OGxBJXdvZTUzW60UkMMkpqZI2mOGNpc/JHQDdXlpBxbZp3iq/hcwhFRw03zzxwfTN1t9PdqCSkq2F0T98jYtI5OB6ELk1cy5WuunpaV/vkMTuFso+An1B/RWMDtXsMbq1k0FM94bxSTNLt/6QSc+qtDa3RsDnD6q+NKMgx9xr52RVB92iLg1xzlxyei7RbKCC2UEVLRx+HDGMAdT3J7krlUmJtS2+lYf8SdgOP9y7EEAIQhACEIQAkkpRTTigBzky9y9c5MSOQGN9pMPiUlJLjkXRn0Iz+ixmm7U+56AvlFAI/eI6/xmF+3JjCRnpkArf61HiWVxPNkjXfp+qx+jak0lvvcbMcTqhgGf6mnP5K2vJQhQnKp9KTyS0FJ1I9HOTmbayainEkbnRyNOxC6LZKx1xtcFU6MsdINxjG+cZ9FMbTQNaGiGINHTgCp9T6hisZp2GPxZpslrc4AA5n7rm1aqrmXTSjv+uDa45isyZdgL3CqrDfKa8RnwcsmaMujJyfUdwrfCs5xlB9MluV5yZ3VeoDZ2xw08bZKqUcQ4vwsb3PdZFmrbw2TiNRG4fymJuFr9V6d/bHhTQSNjqYxw/EPhc3se391h7xYq20xskqmsMb3cIcx2d8Zx9l1vwXb+Hrm0jQuEpV5NpqXL32x8GpaxU1CnWc6baguMcfJ0XT10/a9sjqvD8N+Sx7c5AcO3knrtdKW1U3jVb8Z/CwbueewC5tadQ19qonUtIYvDLi9pezJaTzwq+sqp6yczVcr5ZTtxOPTsOyjpf8AG9WrqE3VajbqTxh5bXZfYrl4ijG3j0rM8b7YWf5HdR3CS/1HiVoAY3aKNp2jHkep81mKyifTguGZIueRzHr/AMq6Ud9fTscW8eSOZaMgfNb7e6DpdO1jQklTUdk8pNfPf5IdC1zVbe4crXqnneUcNp/C4/JRdNkcyl1Bj94kMDS2I4IBGN+u3ZI67Ll9zSVGrKkpKSTxlcP7o7vZ15XVCFWcHFySbi+V9hPJeFKIyVAu9Q6mp+JmxJxxdlFFZeCS4qxoU3UlwiW5ePKywqng5LiT3yrm01Jna5rzktxgquVNxWTF22qQuJ+XjDZLdHTunhkqaeOoEbg7gfkBwHQkEHBX0p7HtYabuuLZbLVHabr4Ze+JjeIStGMkP5kb8j918zVk8cDck5PRo5ldA/8AGESVftFuFS/lDb3+gy9gVzaykpYXBrniqjaypOUl61w1/J9MahnjgioZpv8ABZUtDj2y1zR9yFUa0v1PQUkLYPjfMeEY6KXrX4tJ3E9Y2CUerXArn+oz7za6SYHJa9p+qyZzgmaKcazXFE+TcN43fMMcQuzBcg9ntO5up6V4B2a9zvIcBH5kLrjSgHULwL0IAQhCADyUdzlIPIqG8oBL3bKPI7ZKkdhRZX4QFJq53/qJB3c381zSOWSO330xOLJI308wI6YcQuhaqk4qIRjm54+y5hLVilrLjFK34KmDgGRtxA5GfqVDcU/NpSp+6aJKU/LqRn7MedqeqZDvFCX4/Fg/kuf3iS46g1TTxx5mmLSTk8LWNH5BWDbpFI8QTZglO3x/hPoVs9I2ClpPFrfHbUVUzeAkfhY3OcD7b+S1fT9JnCr64YXv/gzd1e0/L9EssxVM24aeucTp4zHIDlpzlrvmF1ahr4au3sq2uayJzcuLjgNPUEqj1BQxyU5hm/wXnY9WO6ELnF1lmorlFQ1LnBuDhuTw8WdiB5jCvX4aV/eQoKfSpZ9TWeFnHb4Lb/tPJoSm45a7fk6v+22VVV7nZYJbnWH+CH8DfNzzsAvLn7OtT3zE9fWUMPDvHTNLnNZ88bnzW59mGnqey2SEBgNTI0Pmf1c4j8hyW4AwMLN2On2uj1uu1j1SjxKSy/ylwjG3FzWu4dNR4T7L+WfKmo9LXbTzsXKnAiJwJo3cTD8+nzVIvqrU9DT1lDNDURtfHI0tc0jmF8w3yhNsu9VRkkiN+Gnu3mPsujaNq7vs06qxNb7cNGBurbycOPBWVwkdRzNhz4hYQ3HPKzoII25LT5KZkpIJXl74mlx5kbZ9cKDxBoc9U6Jwn0uOVh5w8/g2Xwp4mp6I5wq0+qMsPKxlY/PYpaWHx6ljDnhO7sdlNrbcGtMlNnbcsO+fT/hWMMUcIxEwNHl1SlHZeF7enauhcJSk984w17Yf2JNS8a3lxfRurZuEY7KOdn75XG5mR8Q25JEsTZYiyRoLHcwVYXeBtO/xwQ2N5+LO2Hf3/NU89wYzaMF7voFzrUdPqWFzKhLtw/ddmdZ0zWrbU7KNxnnZrnD7o0Flh05KaShuGnqdzZHtidUxVMrJskgZ3cW9eWFV690o7RGqpLfDUvmp5YRPBI7Z3CSRh2OoLSomnXy1uqbPGTzrIsNHL8YX0TrXQ1r1fUwVNa+eGqhaY2yREfE3OeFwI8z9UpQlUg88mo6peULK9hKknGOHnl79njOx8suY+pk4WgueepX037CGaes2nzBS/uLrKBJVS1BAdLj+U/yjt55Uqy6DtlojDKS30Eh6yy8Rd885V1BpSkE5nMgimIxmnjDcehOSrqlR6OeTW9T1OV3LEdo/q/yXl+r6ess1bRwOMsk8Lo2lo+EEjYk8seixckDmWaKlnc3xWkN2PMjqtPLYqKKjne+Sqlc2NzgXzHmB5YWAtzeC1Gd+XSeHkuJyTt3UxiTp3s+pOCCesc3AkxHGTzIHM+mfyWya5Uun4fdLLQwdWQtB9cZP3Vo16AltKW1R2uTzCgFoQhAB5FQHlTzyKgSckBGlKhVDsAqXMq+qJwUBnb9VsinpjLvHx4d81Dvtjp6qn4omNMbhnYKReaYVETmuGQVAst1NE73G4O/dnaOR3I+R80By2/WJ1DWeHK0ugkPwuI5eRT1qhuVvcHUE2Wf6b9x/ZdB1tDRi1zvnexreHLTn+LpjzVNYqdz6OJ8jcEgHBCAivFzuz4WVbY4IGOD3cBJL8dPIKl9ptoLqWju0LMmjcBMAObMjB+RH3W9ZEGjkrK2Wdt1ZOyYjwOHheCM8Wen0UtGp5VSM/YpnHri4+5ptJ3eKeggkjeCxzA4EdiFpvfY+HOVyqnsVRpaljhtj5qiljyAyR2XNGeQPUDslO1UWN4ZGStfywWHP5KOWMtrg9Wcbm2v1yYIXfEOS+c9X1bKvUNXIwgtBDc+gWu1bqG4Gic6npZ+E85C04aO56rmfiFxLick7k91tXhu2anK4fGML+TH39RNKCHgeyUCmgR3Uf9oUolbH4zeMnAxyz6rcHUjH6mYzDfBKnnjgiMkrg1oVNU3h8mRAOBvc7lWFyoG10bA6RzCwkggfovbBpSOvuTYKivEUZGRhnxPPYdArC9rVacXJL0ruuSSlFSaXcy1zldJTuMjiSSNzupentI3q/vb7hRvbAec83wRj5nn8srtdn0nZrbwmKiZNKN/FnHiOB8s7D5BaWM4AA2HZc71Scb2v5qzjGDcdL1Opp9s6EIrqbbz/AG7GS0L7O6DTs7K6rk99uTfwPIwyI/0jqfMrobJFBY5OhytYxUVhFpcXFS5n11XllgyTzToqAOqp6iq8GIu6BV1BXiujEvi7Hk0HkqiE0twqwLZWHP8Akv8A/iVg4W8Noa3u0BXd0m4bbUhpO8bhz7hVT4y23xjpkIDrFBMHUcB7xt/JTY35WfskxfbaU5/y2/kruA7ICfGVJjKhxlSouYQDyEIQAeRUGQKceRUOQICFKFBnZkFWMgUWVvNAUlVBxBUldbWTtLXtBB5grUTMyocsaAxh0xRmZskjHPLN2h7i4N9AeSsG0zY2gNGAFcSRqNIxAV7mKnuOoX6dnFTkmEOaJGjt3V/I1ZfVNglu8ZjimjjY8/EXAkj0HVAdChukVXA12xDhnKQ1kEr+Q3WStbHUNOyl8R8giaGh7ubhjmVZx1TmkHKA0cdogfvgHKyetfZpS11HLVWtjaeuaC7DdmyeRHQ+aspb2aSB0jnYa0ZJVdovXbtV0NwfTh8ccEroSHYy7HX5q5t7irQl103hr/25RUhGa6ZHzbdK+R7nRYMbWktLTzyO6qC97S2bgc5jHAk42591vhpWav1LcZ54iKUVj2sBGzzxdfJdCu9vbLp+uoqSCMB8D2RxNaAM8Jxt6rMXGrdU1jd7fhFjG1eMvY5xS1MVTGHwvDgenUKZbauOK9W+MOBkfURtAB5ZcFiaVrozwyNcx7Twua4YIPUFaPR1FNXanoRAwubDK2WR2NmtG+/0wtiuL9u2k2sbP9i0hT9aO2sT7E0wJ9gXPDODjEvOy8aEojZARK34o3A8lz66UlZb6h81snLA48Ridu0n06LZ3KZ3vUFODwmUkZ9ApTbDFOz4m8R9UBzmm1LXSTMo6uBw8VwZxNORut/K0CijDuWQq26aZZTyRzQxHLXt6+at66nD6Rkcgy0kZCA1GmpAbfAAdgFpYDlZaxsLGNAGwWpph8IQE6LkpcPMKJH0UqHmEA+hCEAHkorwpR5Jl4QEOQKNK1TZAo0jUBXyM2UWVisJG81FlagK6RiiStVlK1RZGc0BXSMUWRqsJGqLI1AQooPEqHf7QnH07go1ZcI7XURyTh3hPBaSBnGP+07SX+31j3NhnY5zeYzuEBnNbz+Banxl3D4hDSfLqpmgrHTWOpurKL4aeqImEfRhxggeXVQtZUv7RwGn92N/VWliqHQ0VPKGcZMLWEZwcjbK9y0sHmFyRm07m1Ernu4vjcWgDAbk/mnw1OhpJJcNySdksMXh6VFdp613Gbxqyhhkl6vALXH1IxlT7dbqWgh8Kip4oI+ZDG4yfPupjWJ1jFW6k3HpbePbJT0pPONxLGJ9jF61ifYxUFQlrErgKfYzyTojygM7e7aKuIYJZIw8THt5tPdVkF0utuPBPEKhg5PZ8LvpyK2pg4hyUeS3tfzagKAarhe0MqWyRE/6jCB9eSf99juT44qQtkcSD8G4A7nsrRtljPNgPyVpb7eynH7tgb6BATrfAGMbgK4gbhQ6VmAFPiCAkxhSYhuExGpMY5IBxCEIASHhLXhCAjvao0jVMeEw9qAgyNUaRqsHtUZ7UBXyMUSRqs5GKJIxAVkjVEkarOVmygzDAKAob/AJKLON2OB/T9VmNHwNF1vOWggtiBBH+9bC44dTSMPUYWStzjbr9WswXeNGDt/Sf/0gJzqQQVcse5YfiYCeQ7KVaW4pns/ke4fr+qYlrGTTxgtLX7jB6hSLceGeoaeRw79EBNDEtrEtgynmtQDTY08xidYxPMjQDTWJ9jEtrE+2NANsYn2RpxkafYxAMti6J5kHkn441IZGgGGQDsnmxY5KQ1idDEAzEzBUyNqQ1ikRhAKYFIjSGjZONGEApCEIAQhCAQ4bJp4T5SHBARHtTEjVMeEw9qAhSNUaRinPao8jUBWzMVbVNwCrmVuyrKxmxwgMpdJSHBo6lZ+5PFNf4JHbNeCw/MLRV8BdVsDhsScLO61h8Kk94fsIxxZ9EBHbUtqdUUVMw5DSXOx6FXtZKykrSSeFpbj6FYjQfiT6hhmlyXu4nn6LdXOkFTcKdrm53OB5oBdPcozjOcd8bK5pnCRoLdwU0+3w0lJ4k+BtyUawucYyd+Aklo7DOyAumMT7I0qFmQpLI0A2yNPMjTrI08yNANsjT7GJbI0+yNAIYzdPsYlMYn2MQCGtToYlNanGtQCA1ONalBvklgID1o2Sl4AvUAIQhACEIQAvCF6hANPamXtUohIc1AQZGKPIxWLmZTLo0BVSRlQp4M5V2+JMSReSAylxt5ljPDs9py12ORWK1Xaq65QtgmaxkLTl3CSeLyXVpafKg1FvEgIIQHK9IWr3W6SvcMcAAGfNa2sdBSyMnkc0lh4huptVpxz5C+CR0TzsSBnPqFGGl3F7XVU7pgDkNxhv06oCpkmqL3OHPDm0oOw/n/stBb6TgA2UymtzYhgNVjBTABANQw4HJSo4/JSGQp9sSAjsjTzY0+2NOtjQDDY08yNOtYnGsQDbWeSda1LaxOBqAQG4Sw1KwvUB5he4QhACEIQAhCEAIQhACEIQAhCEAktCSWJxeICO6PyTRiUtySUBDdCOyQ6EdlMdzSCgIToAm3U47Ke5IKAg+B5JbYcKSea9HNANtjTrY0oJxqASI0sMTjUsIBAYlBqV1XqAMIQhACEIQAhCEAIQhACEIQH/2Q==", "imgtype": "jpeg" }</t>
   </si>
   <si>
     <t>status=200||type=project||name=Project3 about testing invitations From API||desc=This project is about to invite new members into the project and testing member permissions like adding items, documents to the project etc..||userid=(SYS_USER1)||ispublic=false||isOwner=false||imgtype=image/jpeg</t>
   </si>
   <si>
-    <t>OPQA-III1</t>
-  </si>
-  <si>
-    <t>/container/(OPQA-PPP1_1_id)</t>
-  </si>
-  <si>
-    <t>status=200||id=(OPQA-PPP1_1_id)||type=project||userid=(SYS_USER1)||ispublic=true||isOwner=false</t>
-  </si>
-  <si>
-    <t>OPQA-III2</t>
-  </si>
-  <si>
     <t>1PGROUPS</t>
   </si>
   <si>
@@ -553,39 +370,21 @@
     <t>status=200||total_count=0||pending_count=0</t>
   </si>
   <si>
-    <t>OPQA-III3</t>
-  </si>
-  <si>
     <t>Verify that group id is returned by making the project as public for invites using container API</t>
   </si>
   <si>
     <t>Verify that group details are retuned properly for the given group id using Groups API</t>
   </si>
   <si>
-    <t>/groups/(OPQA-III2_groupid)</t>
-  </si>
-  <si>
-    <t>/invites/bulk/(OPQA-III2_groupid)</t>
-  </si>
-  <si>
-    <t>status=200||group=(OPQA-III2_groupid)||name=Project3 about testing invitations From API||capacity=2147483647||numMembers=1||owner=(SYS_USER1)</t>
-  </si>
-  <si>
     <t>scope</t>
   </si>
   <si>
-    <t>OPQA-III4</t>
-  </si>
-  <si>
     <t>{"message":"Please join my Project Neon group.\nTesting invitations from API","invites":[{"inviteeId":"(SYS_USER2)"}]}</t>
   </si>
   <si>
     <t>Verify that project owner is able to send single invitation to project neon member using Invites API</t>
   </si>
   <si>
-    <t>OPQA-III5</t>
-  </si>
-  <si>
     <t>{"message":"Please join my Project Neon group.\nTesting invitations from API","invites":[{"inviteeId":"(SYS_USER3)"}, {"inviteeId":"(SYS_USER4)"}]}</t>
   </si>
   <si>
@@ -604,78 +403,36 @@
     <t>status=200||numberInvites=1||inviteResponses.inviteeId=(SYS_USER2)</t>
   </si>
   <si>
-    <t>status=200||pending.id=(OPQA-III4_inviteResponses.inviteId)||pending.groupId=(OPQA-III2_groupid)||pending.inviter=(SYS_USER1)||pending.invitee=(SYS_USER2)||pending.state=pending</t>
-  </si>
-  <si>
-    <t>OPQA-III6</t>
-  </si>
-  <si>
     <t>Verify that unauthorized user can't accept the others invitation &amp; check the error status using Invites API</t>
   </si>
   <si>
-    <t>/invites/accept/(OPQA-III4_inviteResponses.inviteId)</t>
-  </si>
-  <si>
     <t>X-1P-User=(SYS_USER3)</t>
   </si>
   <si>
     <t>status=401</t>
   </si>
   <si>
-    <t>OPQA-III7</t>
-  </si>
-  <si>
-    <t>OPQA-III8</t>
-  </si>
-  <si>
     <t>Verify that invited user is able to accept the invitation using Invites API</t>
   </si>
   <si>
-    <t>OPQA-III9</t>
-  </si>
-  <si>
-    <t>status=200||group=(OPQA-III2_groupid)||name=Project3 about testing invitations From API||capacity=2147483647||numMembers=2||owner=(SYS_USER1)</t>
-  </si>
-  <si>
     <t>Verify that member count is incremented for a group after member accepting the project invitation using Groups API</t>
   </si>
   <si>
-    <t>OPQA-III10</t>
-  </si>
-  <si>
     <t>Verify that unauthorized user can't delete/cancel the others invitation &amp; check the error status using Invites API</t>
   </si>
   <si>
-    <t>OPQA-III11</t>
-  </si>
-  <si>
     <t>Verify that invited user is able to decline/delete the project invitation using Invites API</t>
   </si>
   <si>
-    <t>OPQA-III12</t>
-  </si>
-  <si>
     <t>Verify that project owner can cancel the invitation for the invited user using Invites API</t>
   </si>
   <si>
     <t>X-1P-User=(SYS_USER4)</t>
   </si>
   <si>
-    <t>OPQA-III13</t>
-  </si>
-  <si>
     <t>Verify that Groups API returns project's read only members properly for the given group ID</t>
   </si>
   <si>
-    <t>/groups/(OPQA-III2_groupid)/members?role=READ</t>
-  </si>
-  <si>
-    <t>status=200||group=(OPQA-III2_groupid)||numMembers=0||members.uid=(SYS_USER2)||members.role=READ||members.owner=false</t>
-  </si>
-  <si>
-    <t>OPQA-III14</t>
-  </si>
-  <si>
     <t>Verify that project member can't update project's title or description and check the error status using container API</t>
   </si>
   <si>
@@ -685,36 +442,18 @@
     <t>{ "name": "Project1 about cancer updated title from API", "desc": "Project1 about cancer updated description from API" }</t>
   </si>
   <si>
-    <t>OPQA-III15</t>
-  </si>
-  <si>
     <t>Verify that project member able to see particular item added status to a project using container API</t>
   </si>
   <si>
-    <t>OPQA-III8||OPQA-896</t>
-  </si>
-  <si>
     <t>status=200||(OPQA-896_hits.hits[0]._id).itemExists=false</t>
   </si>
   <si>
-    <t>OPQA-III16</t>
-  </si>
-  <si>
     <t>Verify that project member is able to add an item to a invited project using container API</t>
   </si>
   <si>
-    <t>/container/(OPQA-PPP1_1_id)/items</t>
-  </si>
-  <si>
     <t>Verify that project owner able to see item added status to a project using container API</t>
   </si>
   <si>
-    <t>OPQA-III17</t>
-  </si>
-  <si>
-    <t>OPQA-III18</t>
-  </si>
-  <si>
     <t>Verify that project member is able to see item added status to a project using container API</t>
   </si>
   <si>
@@ -724,12 +463,6 @@
     <t>Verify that project member is able to add multiple items like patent, post, wos to a particular project using container API</t>
   </si>
   <si>
-    <t>OPQA-III8||OPQA-896||OPQA-897||OPQA-898</t>
-  </si>
-  <si>
-    <t>OPQA-III19</t>
-  </si>
-  <si>
     <t>Verify that project member able to see multiple items added status to a project using container API</t>
   </si>
   <si>
@@ -742,21 +475,12 @@
     <t>Verify that get container metadata and content works as expected for a given project id by project owner using container API</t>
   </si>
   <si>
-    <t>OPQA-III20</t>
-  </si>
-  <si>
-    <t>OPQA-III21</t>
-  </si>
-  <si>
     <t>Verify that get project containers for a project member works as expected using container API</t>
   </si>
   <si>
     <t>Verify that get container metadata and content works as expected for a given project id by project member using container API</t>
   </si>
   <si>
-    <t>OPQA-III22</t>
-  </si>
-  <si>
     <t>Verify that project owner is able to retrieve all added item details for a particular project using container API</t>
   </si>
   <si>
@@ -769,274 +493,550 @@
     <t>Verify that project member is able to retrieve only wos items details for the invited project using container API</t>
   </si>
   <si>
-    <t>OPQA-III23</t>
-  </si>
-  <si>
-    <t>OPQA-III24</t>
-  </si>
-  <si>
     <t>Verify that project member is able to remove an item from the invited project using container API</t>
   </si>
   <si>
-    <t>/container/(OPQA-PPP1_1_id)/items/(OPQA-896_hits.hits[0]._id)</t>
-  </si>
-  <si>
-    <t>OPQA-III18||OPQA-896</t>
-  </si>
-  <si>
-    <t>OPQA-III25</t>
-  </si>
-  <si>
     <t>Verify that project member is able to get project item exists status  properly for the removed item from the invited project using container API</t>
   </si>
   <si>
-    <t>OPQA-III26</t>
-  </si>
-  <si>
     <t>Verify that project member is able to get project item exists status  properly for the removed item from the invited project using container's responseType as modal API</t>
   </si>
   <si>
-    <t>OPQA-III27</t>
-  </si>
-  <si>
     <t>Verify that project member is not able to delete invited project and check the error status using container API</t>
   </si>
   <si>
-    <t>OPQA-III28</t>
-  </si>
-  <si>
     <t>Verify that project member himself left from the invited project using Groups API</t>
   </si>
   <si>
-    <t>/groups/(OPQA-III2_groupid)/members</t>
-  </si>
-  <si>
     <t>?id=(SYS_USER2)</t>
   </si>
   <si>
     <t>Verify that project owner is able to delete existing project using container API</t>
   </si>
   <si>
-    <t>OPQA-PPP20_2</t>
-  </si>
-  <si>
-    <t>status=200||public_count=1||private_count=0||total_count=1||public[0].id=(OPQA-PPP1_1_id)</t>
-  </si>
-  <si>
-    <t>/invites/delete/(OPQA-III5_inviteResponses[0].inviteId)</t>
-  </si>
-  <si>
     <t>inviteResponses[0].inviteId||inviteResponses[1].inviteId</t>
   </si>
   <si>
-    <t>/invites/delete/(OPQA-III5_inviteResponses[1].inviteId)</t>
-  </si>
-  <si>
     <t>Verify that project owner is able to send multiple invitations(bulk invitations) to project neon members using Invites API</t>
   </si>
   <si>
-    <t>OPQA-GGG1</t>
-  </si>
-  <si>
     <t>Verify that project owner able to attach single GD document to the specific project container using container API</t>
   </si>
   <si>
-    <t>/container/(OPQA-PPP1_id)/documents</t>
-  </si>
-  <si>
-    <t>{"documents":[{"docType":"file","id":"0B175X3HOM71HcXZkby1qNkFXWFE","name":"Container Service quick docume","parent":"container","parentId":"(OPQA-PPP1_id)","parentType":"document","url":"https://drive.google.com/file/d/0B175X3HOM71HcXZkby1qNkFXWFE/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>Verify that project owner able to attach multiple GD documents to the specific project container using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"docType":"file","id":"0B175X3HOM71HYzQxSGpvUGNoTW8","name":"Google drive Test doc1","parent":"container","parentId":"(OPQA-PPP1_id)","parentType":"document","url":"https://drive.google.com/file/d/0B175X3HOM71HYzQxSGpvUGNoTW8/view?usp=drive_web"}, {"docType":"file","id":"0B175X3HOM71HLVBsSkFLUk51bXc","name":"Google drive Test doc2","parent":"container","parentId":"(OPQA-PPP1_id)","parentType":"document","url":"https://drive.google.com/file/d/0B175X3HOM71HLVBsSkFLUk51bXc/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
-    <t>OPQA-GGG2</t>
-  </si>
-  <si>
-    <t>OPQA-GGG3</t>
-  </si>
-  <si>
     <t>?itemType=documents</t>
   </si>
   <si>
-    <t>OPQA-GGG1||OPQA-GGG2</t>
-  </si>
-  <si>
     <t>status=200||contents.documents=3||content_items.id=0B175X3HOM71HcXZkby1qNkFXWFE||content_items.id=0B175X3HOM71HYzQxSGpvUGNoTW8||content_items.id=0B175X3HOM71HLVBsSkFLUk51bXc||content_items[0].type=documents</t>
   </si>
   <si>
     <t>Verify that project owner is able to edit and update attached GD document to container using container API</t>
   </si>
   <si>
-    <t>OPQA-GGG4</t>
-  </si>
-  <si>
-    <t>{"documents":[{"name":"Updated GD name","desc":"Updated GD document description from API","parent":"container","parentId":"(OPQA-PPP1_id)","parentType":"document","id":"0B175X3HOM71HcXZkby1qNkFXWFE","url":"https://drive.google.com/file/d/0B175X3HOM71HcXZkby1qNkFXWFE/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
-    <t>OPQA-GGG5</t>
-  </si>
-  <si>
-    <t>{"documents":[{"name":"Updated GD name","parent":"container","parentId":"(OPQA-PPP1_id)","parentType":"document","id":"0B175X3HOM71HN0VDMXpiOW5CVVU","url":"https://drive.google.com/file/d/0B175X3HOM71HcXZkby1qNkFXWFE/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
-    <t>OPQA-PPP10||OPQA-GGG5</t>
-  </si>
-  <si>
     <t>Verify that project owner is able to delete attached GD document from a project container using container API</t>
   </si>
   <si>
-    <t>OPQA-GGG6</t>
-  </si>
-  <si>
     <t>Verify that project owner able to attach single GD document to wos item for a specific project container ID using container API</t>
   </si>
   <si>
     <t>{"documents":[{"docType":"file","id":"0B175X3HOM71HZm01eEM0dWRoMHM","name":"RCCStories_for QA.docx","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B175X3HOM71HZm01eEM0dWRoMHM/view?usp=drive_web"}]}</t>
   </si>
   <si>
-    <t>OPQA-GGG7</t>
-  </si>
-  <si>
     <t>Verify that project owner able to attach multiple GD documents to the wos item for a specific project container ID using container API</t>
   </si>
   <si>
     <t>{"documents":[{"docType":"file","id":"0B175X3HOM71HYzQxSGpvUGNoTW8","name":"AddGDItem1TOWOS.docx","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B175X3HOM71HYzQxSGpvUGNoTW8/view?usp=drive_web"}, {"docType":"file","id":"0B175X3HOM71HLVBsSkFLUk51bXc","name":"AddGDItem2TOWOS.docx","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B175X3HOM71HLVBsSkFLUk51bXc/view?usp=drive_web"}]}</t>
   </si>
   <si>
-    <t>OPQA-GGG8</t>
-  </si>
-  <si>
     <t>Verify that project owner is able to edit and update attached GD document to an item using container API</t>
   </si>
   <si>
     <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.xlsx","desc":"Updated GD document for wos item through container API","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","id":"0B175X3HOM71HZm01eEM0dWRoMHM","url":"https://drive.google.com/file/d/0B175X3HOM71HZm01eEM0dWRoMHM/view?usp=drive_web"}]}</t>
   </si>
   <si>
-    <t>OPQA-GGG9</t>
-  </si>
-  <si>
     <t>Verify that project owner is able to delete attached GD document from an item in a project container using container API</t>
   </si>
   <si>
     <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.xlsx","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","id":"0B175X3HOM71HZm01eEM0dWRoMHM","url":"https://drive.google.com/file/d/0B175X3HOM71HZm01eEM0dWRoMHM/view?usp=drive_web"}]}</t>
   </si>
   <si>
-    <t>OPQA-GG11</t>
-  </si>
-  <si>
     <t>Verify that unauthorized user is not able to delete attached GD document from a project container and check the error status using container API</t>
   </si>
   <si>
     <t>X-1P-User=(SYS_USER4)||Content-Type=application/json</t>
   </si>
   <si>
-    <t>status=200||id=(OPQA-PPP1_id)||type=project||userid=(SYS_USER1)||ispublic=false||contents.patents=2||contents.wos=2||contents.posts=2||contents.documents=3||contents.dra_ss=0||contents.total=9</t>
-  </si>
-  <si>
-    <t>OPQA-MMM1</t>
-  </si>
-  <si>
     <t>Verify that project member is able to attach single GD document to the invited project container using container API</t>
   </si>
   <si>
-    <t>/container/(OPQA-PPP1_1_id)/documents</t>
-  </si>
-  <si>
-    <t>{"documents":[{"docType":"file","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","name":"DOC-964580-IAM.pdf","parent":"container","parentId":"(OPQA-PPP1_1_id)","parentType":"document","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
-    <t>OPQA-MMM2</t>
-  </si>
-  <si>
     <t>Verify that project member is able to attach multiple GD documents to the invited project container using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"docType":"file","id":"0B9w9MV6gmwPjS3Blam4xek5Zb1E","name":"DOC-964581-Authoring.pdf","parent":"container","parentId":"(OPQA-PPP1_1_id)","parentType":"document","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjS3Blam4xek5Zb1E/view?usp=drive_web"}, {"docType":"file","id":"0B9w9MV6gmwPjZDlyRFAyc0g5UWc","name":"DOC-968512-Search.pdf","parent":"container","parentId":"(OPQA-PPP1_1_id)","parentType":"document","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjZDlyRFAyc0g5UWc/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>Verify that added GD documents to the project container shown count along with content properly to the project owner using container API</t>
   </si>
   <si>
-    <t>OPQA-MMM3</t>
-  </si>
-  <si>
     <t>Verify that added GD documents to the project container shown count along with content properly to the project member using container API</t>
   </si>
   <si>
-    <t>OPQA-MMM1||OPQA-MMM2</t>
-  </si>
-  <si>
     <t>status=200||contents.documents=3||content_items.id=0B9w9MV6gmwPjMzZxRXAyV1RqeDA||content_items.id=0B9w9MV6gmwPjS3Blam4xek5Zb1E||content_items.id=0B9w9MV6gmwPjZDlyRFAyc0g5UWc||content_items[0].type=documents</t>
   </si>
   <si>
-    <t>OPQA-MMM4</t>
-  </si>
-  <si>
     <t>Verify that project member is able to edit and update attached GD document to the invited project container using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"name":"DOC-Updated-IAM.pdf","desc":"GD doc updated by member through API","parent":"container","parentId":"(OPQA-PPP1_1_id)","parentType":"document","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
-    <t>OPQA-MMM5</t>
-  </si>
-  <si>
     <t>Verify that project member is able to delete attached GD document from the invited project container using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"name":"DOC-Updated-IAM.pdf","parent":"container","parentId":"(OPQA-PPP1_1_id)","parentType":"document","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
-    <t>OPQA-MMM6</t>
-  </si>
-  <si>
     <t>Verify that project member is able to attach single GD document to wos item for the invited project container using container API</t>
   </si>
   <si>
     <t>{"documents":[{"docType":"file","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","name":"DOC-964580-IAM.pdf","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
   </si>
   <si>
-    <t>OPQA-MMM7</t>
-  </si>
-  <si>
     <t>Verify that project member is able to attach multiple GD documents to the wos item for the invited project container using container API</t>
   </si>
   <si>
-    <t>OPQA-MMM8</t>
-  </si>
-  <si>
     <t>Verify that project member is able to edit and update attached GD document to an item using container API</t>
   </si>
   <si>
     <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.pdf","desc":"Updated GD document for wos item through container API","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
   </si>
   <si>
-    <t>OPQA-MMM9</t>
-  </si>
-  <si>
     <t>Verify that project member is able to delete attached GD document from an item in an invited project container using container API</t>
   </si>
   <si>
     <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.xlsx","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
   </si>
   <si>
-    <t>OPQA-MMM10</t>
-  </si>
-  <si>
     <t>Verify that project owner is able to delete member attached GD document from a project container using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"name":"DOC-964581-Authoring.pdf","parent":"container","parentId":"(OPQA-PPP1_1_id)","parentType":"document","id":"0B9w9MV6gmwPjS3Blam4xek5Zb1E","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjS3Blam4xek5Zb1E/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>{"documents":[{"docType":"file","id":"0B9w9MV6gmwPjS3Blam4xek5Zb1E","name":"DOC-964581-Authoring.pdf","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjS3Blam4xek5Zb1E/view?usp=drive_web"}, {"docType":"file","id":"0B9w9MV6gmwPjZDlyRFAyc0g5UWc","name":"DOC-968512-Search.pdf","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjZDlyRFAyc0g5UWc/view?usp=drive_web"}]}</t>
   </si>
   <si>
-    <t>status=200||id=(OPQA-PPP1_1_id)||type=project||userid=(SYS_USER1)||ispublic=true||contents.patents=2||contents.wos=2||contents.posts=2||contents.documents=1||contents.dra_ss=0||contents.total=7</t>
+    <t>OPQA-4042</t>
+  </si>
+  <si>
+    <t>OPQA-4043</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4043_id)</t>
+  </si>
+  <si>
+    <t>id=(OPQA-4043_id)||ispublic=false</t>
+  </si>
+  <si>
+    <t>OPQA-4043||OPQA-896</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4043_id)/items</t>
+  </si>
+  <si>
+    <t>OPQA-4043||OPQA-896||OPQA-897||OPQA-898</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4043_id)/documents</t>
+  </si>
+  <si>
+    <t>{"documents":[{"docType":"file","id":"0B175X3HOM71HcXZkby1qNkFXWFE","name":"Container Service quick docume","parent":"container","parentId":"(OPQA-4043_id)","parentType":"document","url":"https://drive.google.com/file/d/0B175X3HOM71HcXZkby1qNkFXWFE/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"docType":"file","id":"0B175X3HOM71HYzQxSGpvUGNoTW8","name":"Google drive Test doc1","parent":"container","parentId":"(OPQA-4043_id)","parentType":"document","url":"https://drive.google.com/file/d/0B175X3HOM71HYzQxSGpvUGNoTW8/view?usp=drive_web"}, {"docType":"file","id":"0B175X3HOM71HLVBsSkFLUk51bXc","name":"Google drive Test doc2","parent":"container","parentId":"(OPQA-4043_id)","parentType":"document","url":"https://drive.google.com/file/d/0B175X3HOM71HLVBsSkFLUk51bXc/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"name":"Updated GD name","desc":"Updated GD document description from API","parent":"container","parentId":"(OPQA-4043_id)","parentType":"document","id":"0B175X3HOM71HcXZkby1qNkFXWFE","url":"https://drive.google.com/file/d/0B175X3HOM71HcXZkby1qNkFXWFE/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"name":"Updated GD name","parent":"container","parentId":"(OPQA-4043_id)","parentType":"document","id":"0B175X3HOM71HN0VDMXpiOW5CVVU","url":"https://drive.google.com/file/d/0B175X3HOM71HcXZkby1qNkFXWFE/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>status=200||id=(OPQA-4043_id)||type=project||userid=(SYS_USER1)||ispublic=false||contents.patents=2||contents.wos=2||contents.posts=2||contents.documents=3||contents.dra_ss=0||contents.total=9</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4043_id)/items?itemType=wos&amp;sortoption=latestupdated</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4043_id)/items/(OPQA-896_hits.hits[0]._id)</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4043_1_id)</t>
+  </si>
+  <si>
+    <t>OPQA-4043_1</t>
+  </si>
+  <si>
+    <t>status=200||id=(OPQA-4043_1_id)||type=project||userid=(SYS_USER1)||ispublic=true||isOwner=false</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4043_1_id)/items</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4043_1_id)/documents</t>
+  </si>
+  <si>
+    <t>{"documents":[{"docType":"file","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","name":"DOC-964580-IAM.pdf","parent":"container","parentId":"(OPQA-4043_1_id)","parentType":"document","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"docType":"file","id":"0B9w9MV6gmwPjS3Blam4xek5Zb1E","name":"DOC-964581-Authoring.pdf","parent":"container","parentId":"(OPQA-4043_1_id)","parentType":"document","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjS3Blam4xek5Zb1E/view?usp=drive_web"}, {"docType":"file","id":"0B9w9MV6gmwPjZDlyRFAyc0g5UWc","name":"DOC-968512-Search.pdf","parent":"container","parentId":"(OPQA-4043_1_id)","parentType":"document","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjZDlyRFAyc0g5UWc/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"name":"DOC-Updated-IAM.pdf","desc":"GD doc updated by member through API","parent":"container","parentId":"(OPQA-4043_1_id)","parentType":"document","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"name":"DOC-Updated-IAM.pdf","parent":"container","parentId":"(OPQA-4043_1_id)","parentType":"document","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"name":"DOC-964581-Authoring.pdf","parent":"container","parentId":"(OPQA-4043_1_id)","parentType":"document","id":"0B9w9MV6gmwPjS3Blam4xek5Zb1E","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjS3Blam4xek5Zb1E/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>status=200||public_count=1||private_count=0||total_count=1||public[0].id=(OPQA-4043_1_id)</t>
+  </si>
+  <si>
+    <t>status=200||id=(OPQA-4043_1_id)||type=project||userid=(SYS_USER1)||ispublic=true||contents.patents=2||contents.wos=2||contents.posts=2||contents.documents=1||contents.dra_ss=0||contents.total=7</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4043_1_id)/items/(OPQA-896_hits.hits[0]._id)</t>
+  </si>
+  <si>
+    <t>OPQA-4044</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4044_id)</t>
+  </si>
+  <si>
+    <t>status=200||id=(OPQA-4044_id)||type=project||userid=(SYS_USER1)||ispublic=true||isOwner=false</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4044_id)/items</t>
+  </si>
+  <si>
+    <t>OPQA-4044||OPQA-896||OPQA-897||OPQA-898</t>
+  </si>
+  <si>
+    <t>OPQA-4043||OPQA-4044||OPQA-896</t>
+  </si>
+  <si>
+    <t>status=200||userId=(SYS_USER1)||containerId=(OPQA-4043_id)||containerId=(OPQA-4044_id)</t>
+  </si>
+  <si>
+    <t>OPQA-4043||OPQA-4044</t>
+  </si>
+  <si>
+    <t>status=200||public_count=1||private_count=1||total_count=2||public[0].id=(OPQA-4044_id)||private[0].id=(OPQA-4043_id)</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4044_id)/items/(OPQA-896_hits.hits[0]._id)</t>
+  </si>
+  <si>
+    <t>OPQA-4044||OPQA-896</t>
+  </si>
+  <si>
+    <t>OPQA-4045</t>
+  </si>
+  <si>
+    <t>OPQA-4046</t>
+  </si>
+  <si>
+    <t>OPQA-4047</t>
+  </si>
+  <si>
+    <t>OPQA-4048</t>
+  </si>
+  <si>
+    <t>OPQA-4049</t>
+  </si>
+  <si>
+    <t>OPQA-4050</t>
+  </si>
+  <si>
+    <t>OPQA-4051</t>
+  </si>
+  <si>
+    <t>OPQA-4052</t>
+  </si>
+  <si>
+    <t>OPQA-4052||OPQA-4044</t>
+  </si>
+  <si>
+    <t>/container/(SYS_USER1)/ByGroup/(OPQA-4052_groupid)</t>
+  </si>
+  <si>
+    <t>status=200||public[0].id=(OPQA-4044_id)||public[0].groupid=(OPQA-4052_groupid)||public[0].type=project</t>
+  </si>
+  <si>
+    <t>OPQA-4053</t>
+  </si>
+  <si>
+    <t>OPQA-4054</t>
+  </si>
+  <si>
+    <t>OPQA-4055</t>
+  </si>
+  <si>
+    <t>OPQA-4056</t>
+  </si>
+  <si>
+    <t>OPQA-4057</t>
+  </si>
+  <si>
+    <t>OPQA-4058</t>
+  </si>
+  <si>
+    <t>OPQA-4058_1</t>
+  </si>
+  <si>
+    <t>OPQA-4059</t>
+  </si>
+  <si>
+    <t>OPQA-4060</t>
+  </si>
+  <si>
+    <t>OPQA-4061</t>
+  </si>
+  <si>
+    <t>OPQA-4060||OPQA-4061</t>
+  </si>
+  <si>
+    <t>OPQA-4062</t>
+  </si>
+  <si>
+    <t>OPQA-4063</t>
+  </si>
+  <si>
+    <t>OPQA-4064</t>
+  </si>
+  <si>
+    <t>OPQA-4065</t>
+  </si>
+  <si>
+    <t>OPQA-4058||OPQA-4065</t>
+  </si>
+  <si>
+    <t>OPQA-4066</t>
+  </si>
+  <si>
+    <t>OPQA-4067</t>
+  </si>
+  <si>
+    <t>OPQA-4068</t>
+  </si>
+  <si>
+    <t>OPQA-4069</t>
+  </si>
+  <si>
+    <t>OPQA-4070</t>
+  </si>
+  <si>
+    <t>OPQA-4071</t>
+  </si>
+  <si>
+    <t>OPQA-4072</t>
+  </si>
+  <si>
+    <t>OPQA-4073</t>
+  </si>
+  <si>
+    <t>OPQA-4074</t>
+  </si>
+  <si>
+    <t>OPQA-4075</t>
+  </si>
+  <si>
+    <t>OPQA-4076</t>
+  </si>
+  <si>
+    <t>OPQA-4077</t>
+  </si>
+  <si>
+    <t>OPQA-4078</t>
+  </si>
+  <si>
+    <t>OPQA-4078_1</t>
+  </si>
+  <si>
+    <t>OPQA-4079</t>
+  </si>
+  <si>
+    <t>OPQA-4080</t>
+  </si>
+  <si>
+    <t>OPQA-4081</t>
+  </si>
+  <si>
+    <t>OPQA-4081_1</t>
+  </si>
+  <si>
+    <t>OPQA-4082</t>
+  </si>
+  <si>
+    <t>OPQA-4083</t>
+  </si>
+  <si>
+    <t>OPQA-4084</t>
+  </si>
+  <si>
+    <t>OPQA-4085</t>
+  </si>
+  <si>
+    <t>OPQA-4086</t>
+  </si>
+  <si>
+    <t>/groups/(OPQA-4086_groupid)</t>
+  </si>
+  <si>
+    <t>status=200||group=(OPQA-4086_groupid)||name=Project3 about testing invitations From API||capacity=2147483647||numMembers=1||owner=(SYS_USER1)</t>
+  </si>
+  <si>
+    <t>/invites/bulk/(OPQA-4086_groupid)</t>
+  </si>
+  <si>
+    <t>status=200||group=(OPQA-4086_groupid)||name=Project3 about testing invitations From API||capacity=2147483647||numMembers=2||owner=(SYS_USER1)</t>
+  </si>
+  <si>
+    <t>/groups/(OPQA-4086_groupid)/members?role=READ</t>
+  </si>
+  <si>
+    <t>status=200||group=(OPQA-4086_groupid)||numMembers=0||members.uid=(SYS_USER2)||members.role=READ||members.owner=false</t>
+  </si>
+  <si>
+    <t>/groups/(OPQA-4086_groupid)/members</t>
+  </si>
+  <si>
+    <t>OPQA-4087</t>
+  </si>
+  <si>
+    <t>OPQA-4088</t>
+  </si>
+  <si>
+    <t>status=200||pending.id=(OPQA-4088_inviteResponses.inviteId)||pending.groupId=(OPQA-4086_groupid)||pending.inviter=(SYS_USER1)||pending.invitee=(SYS_USER2)||pending.state=pending</t>
+  </si>
+  <si>
+    <t>/invites/accept/(OPQA-4088_inviteResponses.inviteId)</t>
+  </si>
+  <si>
+    <t>OPQA-4089</t>
+  </si>
+  <si>
+    <t>OPQA-4090</t>
+  </si>
+  <si>
+    <t>OPQA-4091</t>
+  </si>
+  <si>
+    <t>OPQA-4092</t>
+  </si>
+  <si>
+    <t>OPQA-4092||OPQA-896</t>
+  </si>
+  <si>
+    <t>OPQA-4092||OPQA-896||OPQA-897||OPQA-898</t>
+  </si>
+  <si>
+    <t>OPQA-4093</t>
+  </si>
+  <si>
+    <t>OPQA-4094</t>
+  </si>
+  <si>
+    <t>OPQA-4095</t>
+  </si>
+  <si>
+    <t>OPQA-4096</t>
+  </si>
+  <si>
+    <t>OPQA-4097</t>
+  </si>
+  <si>
+    <t>OPQA-4098</t>
+  </si>
+  <si>
+    <t>OPQA-4099</t>
+  </si>
+  <si>
+    <t>OPQA-4100</t>
+  </si>
+  <si>
+    <t>OPQA-4101</t>
+  </si>
+  <si>
+    <t>OPQA-4102</t>
+  </si>
+  <si>
+    <t>OPQA-4102||OPQA-896</t>
+  </si>
+  <si>
+    <t>OPQA-4103</t>
+  </si>
+  <si>
+    <t>OPQA-4104</t>
+  </si>
+  <si>
+    <t>OPQA-4105</t>
+  </si>
+  <si>
+    <t>OPQA-4104||OPQA-4105</t>
+  </si>
+  <si>
+    <t>OPQA-4106</t>
+  </si>
+  <si>
+    <t>OPQA-4107</t>
+  </si>
+  <si>
+    <t>OPQA-4108</t>
+  </si>
+  <si>
+    <t>OPQA-4109</t>
+  </si>
+  <si>
+    <t>OPQA-4110</t>
+  </si>
+  <si>
+    <t>OPQA-4111</t>
+  </si>
+  <si>
+    <t>OPQA-4112</t>
+  </si>
+  <si>
+    <t>OPQA-4113</t>
+  </si>
+  <si>
+    <t>OPQA-4114</t>
+  </si>
+  <si>
+    <t>OPQA-4115</t>
+  </si>
+  <si>
+    <t>OPQA-4116</t>
+  </si>
+  <si>
+    <t>OPQA-4117</t>
+  </si>
+  <si>
+    <t>OPQA-4118</t>
+  </si>
+  <si>
+    <t>OPQA-4119</t>
+  </si>
+  <si>
+    <t>OPQA-4120</t>
+  </si>
+  <si>
+    <t>OPQA-4121</t>
+  </si>
+  <si>
+    <t>OPQA-4122</t>
+  </si>
+  <si>
+    <t>OPQA-4081_2</t>
+  </si>
+  <si>
+    <t>/invites/delete/(OPQA-4089_inviteResponses[0].inviteId)</t>
+  </si>
+  <si>
+    <t>/invites/delete/(OPQA-4089_inviteResponses[1].inviteId)</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1112,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1123,7 +1125,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1140,12 +1142,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1155,9 +1151,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1456,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L51"/>
     </sheetView>
   </sheetViews>
@@ -1477,40 +1476,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1540,7 +1539,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L2"/>
     </row>
@@ -1562,7 +1561,7 @@
       </c>
       <c r="F3"/>
       <c r="G3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3"/>
@@ -1570,15 +1569,15 @@
         <v>14</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L3"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="60">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1592,7 +1591,7 @@
       </c>
       <c r="F4"/>
       <c r="G4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4"/>
@@ -1600,7 +1599,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L4"/>
     </row>
@@ -1608,7 +1607,7 @@
       <c r="A5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1636,10 +1635,10 @@
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="47.25">
       <c r="A6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>67</v>
+        <v>199</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>36</v>
@@ -1654,7 +1653,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6"/>
@@ -1666,10 +1665,10 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="360">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>36</v>
@@ -1684,12 +1683,12 @@
         <v>24</v>
       </c>
       <c r="G7"/>
-      <c r="H7" s="12" t="s">
-        <v>68</v>
+      <c r="H7" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>38</v>
@@ -1698,10 +1697,10 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>36</v>
@@ -1716,12 +1715,12 @@
         <v>24</v>
       </c>
       <c r="G8"/>
-      <c r="H8" s="12" t="s">
-        <v>71</v>
+      <c r="H8" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="2" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>38</v>
@@ -1730,16 +1729,16 @@
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="300">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>238</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>25</v>
@@ -1748,30 +1747,30 @@
         <v>24</v>
       </c>
       <c r="G9"/>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -1780,30 +1779,30 @@
         <v>24</v>
       </c>
       <c r="G10"/>
-      <c r="H10" s="12" t="s">
-        <v>74</v>
+      <c r="H10" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A11" s="2" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>25</v>
@@ -1812,11 +1811,11 @@
         <v>52</v>
       </c>
       <c r="G11"/>
-      <c r="H11" s="12" t="s">
-        <v>221</v>
+      <c r="H11" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>53</v>
@@ -1826,16 +1825,16 @@
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="375">
       <c r="A12" s="2" t="s">
-        <v>113</v>
+        <v>241</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>25</v>
@@ -1844,30 +1843,30 @@
         <v>24</v>
       </c>
       <c r="G12"/>
-      <c r="H12" s="12" t="s">
-        <v>115</v>
+      <c r="H12" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="375">
       <c r="A13" s="2" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>
@@ -1876,30 +1875,30 @@
         <v>24</v>
       </c>
       <c r="G13"/>
-      <c r="H13" s="12" t="s">
-        <v>119</v>
+      <c r="H13" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A14" s="2" t="s">
-        <v>112</v>
+        <v>243</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>1</v>
@@ -1910,9 +1909,9 @@
       <c r="G14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>42</v>
@@ -1922,16 +1921,16 @@
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30">
       <c r="A15" s="2" t="s">
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>1</v>
@@ -1940,28 +1939,28 @@
         <v>26</v>
       </c>
       <c r="G15"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A16" s="2" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>25</v>
@@ -1970,26 +1969,26 @@
         <v>24</v>
       </c>
       <c r="G16"/>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="L16"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="47.25">
       <c r="A17" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>128</v>
+        <v>249</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>36</v>
@@ -2004,24 +2003,24 @@
         <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A18" s="2" t="s">
-        <v>131</v>
+        <v>250</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>36</v>
@@ -2036,13 +2035,13 @@
         <v>24</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>50</v>
@@ -2052,16 +2051,16 @@
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A19" s="2" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>23</v>
@@ -2070,13 +2069,13 @@
         <v>24</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>48</v>
@@ -2086,16 +2085,16 @@
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A20" s="2" t="s">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>23</v>
@@ -2106,11 +2105,11 @@
       <c r="G20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>53</v>
@@ -2120,10 +2119,10 @@
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A21" s="2" t="s">
-        <v>137</v>
+        <v>253</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>36</v>
@@ -2138,13 +2137,13 @@
         <v>24</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>51</v>
@@ -2154,16 +2153,16 @@
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A22" s="2" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
+        <v>204</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>23</v>
@@ -2172,13 +2171,13 @@
         <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="10" t="s">
         <v>49</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>83</v>
+        <v>205</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>48</v>
@@ -2188,16 +2187,16 @@
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A23" s="2" t="s">
-        <v>141</v>
+        <v>255</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>23</v>
@@ -2206,13 +2205,13 @@
         <v>24</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>49</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>48</v>
@@ -2222,10 +2221,10 @@
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="375">
       <c r="A24" s="2" t="s">
-        <v>84</v>
+        <v>256</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>36</v>
@@ -2240,32 +2239,32 @@
         <v>24</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H24" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>49</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A25" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>273</v>
+        <v>167</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>23</v>
@@ -2274,11 +2273,11 @@
         <v>24</v>
       </c>
       <c r="G25"/>
-      <c r="H25" s="14" t="s">
-        <v>275</v>
+      <c r="H25" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>48</v>
@@ -2288,16 +2287,16 @@
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="180">
       <c r="A26" s="2" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>23</v>
@@ -2306,11 +2305,11 @@
         <v>24</v>
       </c>
       <c r="G26"/>
-      <c r="H26" s="14" t="s">
-        <v>277</v>
+      <c r="H26" s="10" t="s">
+        <v>208</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>48</v>
@@ -2320,16 +2319,16 @@
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="120">
       <c r="A27" s="2" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>313</v>
+        <v>185</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>1</v>
@@ -2338,30 +2337,30 @@
         <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H27" s="14"/>
+        <v>169</v>
+      </c>
+      <c r="H27" s="10"/>
       <c r="I27" s="2" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>282</v>
+        <v>170</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A28" s="2" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>283</v>
+        <v>171</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>23</v>
@@ -2370,11 +2369,11 @@
         <v>24</v>
       </c>
       <c r="G28"/>
-      <c r="H28" s="14" t="s">
-        <v>285</v>
+      <c r="H28" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>48</v>
@@ -2384,29 +2383,29 @@
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A29" s="2" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>303</v>
+        <v>181</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>304</v>
+        <v>182</v>
       </c>
       <c r="G29"/>
-      <c r="H29" s="14" t="s">
-        <v>287</v>
+      <c r="H29" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>53</v>
@@ -2416,16 +2415,16 @@
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A30" s="2" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>289</v>
+        <v>172</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>25</v>
@@ -2434,11 +2433,11 @@
         <v>24</v>
       </c>
       <c r="G30"/>
-      <c r="H30" s="14" t="s">
-        <v>287</v>
+      <c r="H30" s="10" t="s">
+        <v>210</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>48</v>
@@ -2448,16 +2447,16 @@
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A31" s="2" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>291</v>
+        <v>173</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>23</v>
@@ -2466,11 +2465,11 @@
         <v>24</v>
       </c>
       <c r="G31"/>
-      <c r="H31" s="14" t="s">
-        <v>292</v>
+      <c r="H31" s="10" t="s">
+        <v>174</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>48</v>
@@ -2480,16 +2479,16 @@
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="180">
       <c r="A32" s="2" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>294</v>
+        <v>175</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>23</v>
@@ -2498,11 +2497,11 @@
         <v>24</v>
       </c>
       <c r="G32"/>
-      <c r="H32" s="14" t="s">
-        <v>295</v>
+      <c r="H32" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>48</v>
@@ -2512,16 +2511,16 @@
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="120">
       <c r="A33" s="2" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>297</v>
+        <v>177</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>23</v>
@@ -2530,11 +2529,11 @@
         <v>24</v>
       </c>
       <c r="G33"/>
-      <c r="H33" s="14" t="s">
-        <v>298</v>
+      <c r="H33" s="10" t="s">
+        <v>178</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>48</v>
@@ -2544,16 +2543,16 @@
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A34" s="2" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>300</v>
+        <v>179</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>25</v>
@@ -2562,11 +2561,11 @@
         <v>24</v>
       </c>
       <c r="G34"/>
-      <c r="H34" s="14" t="s">
-        <v>301</v>
+      <c r="H34" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>48</v>
@@ -2576,10 +2575,10 @@
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A35" s="2" t="s">
-        <v>85</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>36</v>
@@ -2594,24 +2593,24 @@
         <v>26</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H35" s="14"/>
+        <v>95</v>
+      </c>
+      <c r="H35" s="10"/>
       <c r="I35" s="5" t="s">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35"/>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A36" s="2" t="s">
-        <v>106</v>
+        <v>270</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>239</v>
+        <v>150</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>36</v>
@@ -2626,30 +2625,30 @@
         <v>26</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H36" s="14"/>
+        <v>91</v>
+      </c>
+      <c r="H36" s="10"/>
       <c r="I36" s="2" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="K36"/>
       <c r="L36"/>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A37" s="2" t="s">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>240</v>
+        <v>151</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>1</v>
@@ -2658,84 +2657,84 @@
         <v>26</v>
       </c>
       <c r="G37"/>
-      <c r="H37" s="3"/>
+      <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>305</v>
+        <v>211</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A38" s="2" t="s">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38"/>
-      <c r="H38" s="3"/>
+      <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>273</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39"/>
-      <c r="H39" s="3"/>
+      <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K39"/>
       <c r="L39"/>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" ht="195">
       <c r="A40" s="2" t="s">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>1</v>
@@ -2746,28 +2745,28 @@
       <c r="G40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="3"/>
+      <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A41" s="2" t="s">
-        <v>109</v>
+        <v>275</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>1</v>
@@ -2778,28 +2777,28 @@
       <c r="G41" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="3"/>
+      <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>82</v>
+        <v>254</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A42" s="2" t="s">
-        <v>110</v>
+        <v>276</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>1</v>
@@ -2808,30 +2807,30 @@
         <v>26</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H42" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="30">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>27</v>
@@ -2842,9 +2841,9 @@
       <c r="G43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="3"/>
+      <c r="H43" s="2"/>
       <c r="I43" s="5" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>48</v>
@@ -2854,16 +2853,16 @@
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" ht="45">
       <c r="A44" s="2" t="s">
-        <v>154</v>
+        <v>285</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>27</v>
@@ -2874,9 +2873,9 @@
       <c r="G44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H44" s="3"/>
+      <c r="H44" s="2"/>
       <c r="I44" s="5" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>53</v>
@@ -2886,16 +2885,16 @@
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" ht="30">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>97</v>
+        <v>236</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>27</v>
@@ -2906,9 +2905,9 @@
       <c r="G45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H45" s="3"/>
+      <c r="H45" s="2"/>
       <c r="I45" s="5" t="s">
-        <v>98</v>
+        <v>237</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>48</v>
@@ -2918,10 +2917,10 @@
     </row>
     <row r="46" spans="1:12" ht="75">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>36</v>
@@ -2936,13 +2935,13 @@
         <v>24</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H46" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>50</v>
@@ -2951,10 +2950,10 @@
     </row>
     <row r="47" spans="1:12" ht="75">
       <c r="A47" s="2" t="s">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>36</v>
@@ -2969,13 +2968,13 @@
         <v>24</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H47" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>87</v>
+        <v>277</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>50</v>
@@ -2984,16 +2983,16 @@
     </row>
     <row r="48" spans="1:12" ht="30">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>27</v>
@@ -3001,27 +3000,28 @@
       <c r="F48" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:10" ht="45">
+    <row r="49" spans="1:11" ht="45">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>283</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>27</v>
@@ -3029,26 +3029,28 @@
       <c r="F49" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="30">
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" ht="30">
       <c r="A50" s="2" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>27</v>
@@ -3056,26 +3058,28 @@
       <c r="F50" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="30">
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" ht="30">
       <c r="A51" s="2" t="s">
-        <v>159</v>
+        <v>284</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>27</v>
@@ -3083,13 +3087,15 @@
       <c r="F51" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="K51" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3107,7 +3113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L41"/>
     </sheetView>
   </sheetViews>
@@ -3128,49 +3134,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="409.5">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>36</v>
@@ -3184,11 +3190,13 @@
       <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>167</v>
-      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="1"/>
       <c r="J2" s="2" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>38</v>
@@ -3196,222 +3204,229 @@
     </row>
     <row r="3" spans="1:12" ht="45">
       <c r="A3" s="2" t="s">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="7"/>
-      <c r="G3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H3"/>
-      <c r="J3" s="12" t="s">
-        <v>177</v>
+      <c r="G3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="10" t="s">
+        <v>116</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="75">
       <c r="A4" s="2" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="10" t="s">
         <v>43</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="105">
       <c r="A5" s="2" t="s">
-        <v>178</v>
+        <v>295</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" t="s">
-        <v>173</v>
+        <v>118</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="2" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>183</v>
+        <v>289</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>184</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75">
       <c r="A6" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>186</v>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>190</v>
+        <v>287</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75">
       <c r="A7" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D7" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" t="s">
+        <v>299</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>189</v>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>269</v>
+        <v>287</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="120">
       <c r="A8" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>191</v>
+        <v>300</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H8"/>
-      <c r="J8" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K8"/>
+      <c r="G8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="60">
       <c r="A9" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>197</v>
+        <v>301</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H9"/>
+        <v>129</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
       <c r="I9" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="K9"/>
+        <v>296</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="45">
       <c r="A10" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>203</v>
+        <v>302</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>198</v>
+        <v>298</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -3419,55 +3434,57 @@
       <c r="F10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H10"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
       <c r="I10" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J10" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K10"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="105">
       <c r="A11" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" t="s">
-        <v>173</v>
+        <v>305</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="2" t="s">
-        <v>172</v>
+        <v>287</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>205</v>
+        <v>291</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="60">
       <c r="A12" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>208</v>
+        <v>306</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>27</v>
@@ -3475,83 +3492,86 @@
       <c r="F12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H12"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J12" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K12"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="45">
       <c r="A13" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>210</v>
+        <v>307</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>268</v>
+        <v>338</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H13"/>
+        <v>129</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J13" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K13"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="45">
       <c r="A14" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>212</v>
+        <v>308</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H14"/>
+        <v>136</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="J14" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K14"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="75">
       <c r="A15" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>215</v>
+        <v>309</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D15" t="s">
-        <v>216</v>
+        <v>112</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>1</v>
@@ -3559,27 +3579,28 @@
       <c r="F15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H15"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
       <c r="I15" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="K15"/>
+        <v>302</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="75">
       <c r="A16" s="2" t="s">
-        <v>218</v>
+        <v>310</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>219</v>
+        <v>138</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>25</v>
@@ -3587,23 +3608,24 @@
       <c r="F16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>220</v>
+      <c r="G16" s="1"/>
+      <c r="H16" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="K16"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="75">
       <c r="A17" s="2" t="s">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>36</v>
@@ -3618,31 +3640,31 @@
         <v>52</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>224</v>
+        <v>303</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K17"/>
+        <v>142</v>
+      </c>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="75">
       <c r="A18" s="2" t="s">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>23</v>
@@ -3651,25 +3673,25 @@
         <v>52</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>224</v>
+        <v>303</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K18"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="75">
       <c r="A19" s="2" t="s">
-        <v>230</v>
+        <v>313</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>36</v>
@@ -3684,31 +3706,31 @@
         <v>52</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K19"/>
+        <v>146</v>
+      </c>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="75">
       <c r="A20" s="2" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>23</v>
@@ -3717,25 +3739,25 @@
         <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="11" t="s">
         <v>49</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>235</v>
+        <v>304</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K20"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="195">
       <c r="A21" s="2" t="s">
-        <v>236</v>
+        <v>316</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>36</v>
@@ -3750,31 +3772,31 @@
         <v>52</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H21" s="11" t="s">
         <v>49</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>235</v>
+        <v>304</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="K21"/>
+        <v>149</v>
+      </c>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="135">
       <c r="A22" s="2" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>307</v>
+        <v>183</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>23</v>
@@ -3782,29 +3804,30 @@
       <c r="F22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="14" t="s">
-        <v>309</v>
+      <c r="G22" s="1"/>
+      <c r="H22" s="10" t="s">
+        <v>219</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K22"/>
+      <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="255">
       <c r="A23" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>311</v>
+        <v>184</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>23</v>
@@ -3812,29 +3835,30 @@
       <c r="F23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="14" t="s">
-        <v>312</v>
+      <c r="G23" s="1"/>
+      <c r="H23" s="10" t="s">
+        <v>220</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K23"/>
+      <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="135">
       <c r="A24" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>315</v>
+        <v>186</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>1</v>
@@ -3843,29 +3867,29 @@
         <v>54</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="H24" s="14"/>
+        <v>169</v>
+      </c>
+      <c r="H24" s="10"/>
       <c r="I24" s="2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="K24"/>
+        <v>187</v>
+      </c>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="135">
       <c r="A25" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>319</v>
+        <v>188</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>23</v>
@@ -3873,29 +3897,30 @@
       <c r="F25" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="14" t="s">
-        <v>320</v>
+      <c r="G25" s="1"/>
+      <c r="H25" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K25"/>
+      <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="120">
       <c r="A26" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>25</v>
@@ -3903,29 +3928,30 @@
       <c r="F26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H26" s="14" t="s">
-        <v>323</v>
+      <c r="G26" s="1"/>
+      <c r="H26" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K26"/>
+      <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="120">
       <c r="A27" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>325</v>
+        <v>190</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>23</v>
@@ -3933,29 +3959,30 @@
       <c r="F27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="14" t="s">
-        <v>326</v>
+      <c r="G27" s="1"/>
+      <c r="H27" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>226</v>
+        <v>312</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K27"/>
+      <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="255">
       <c r="A28" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>328</v>
+        <v>192</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>23</v>
@@ -3963,29 +3990,30 @@
       <c r="F28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="14" t="s">
-        <v>338</v>
+      <c r="G28" s="1"/>
+      <c r="H28" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K28"/>
+      <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="135">
       <c r="A29" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>330</v>
+        <v>193</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>23</v>
@@ -3993,29 +4021,30 @@
       <c r="F29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="14" t="s">
-        <v>331</v>
+      <c r="G29" s="1"/>
+      <c r="H29" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K29"/>
+      <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="120">
       <c r="A30" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>333</v>
+        <v>195</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>25</v>
@@ -4023,29 +4052,30 @@
       <c r="F30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H30" s="14" t="s">
-        <v>334</v>
+      <c r="G30" s="1"/>
+      <c r="H30" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K30"/>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="105">
       <c r="A31" s="2" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>336</v>
+        <v>197</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>308</v>
+        <v>218</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>25</v>
@@ -4053,23 +4083,24 @@
       <c r="F31" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="14" t="s">
-        <v>337</v>
+      <c r="G31" s="1"/>
+      <c r="H31" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K31"/>
+      <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="60">
       <c r="A32" s="2" t="s">
-        <v>241</v>
+        <v>328</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>36</v>
@@ -4084,29 +4115,29 @@
         <v>54</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32" s="13"/>
+        <v>91</v>
+      </c>
+      <c r="H32" s="11"/>
       <c r="I32" s="2" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="K32"/>
+        <v>224</v>
+      </c>
+      <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="120">
       <c r="A33" s="2" t="s">
-        <v>242</v>
+        <v>329</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>1</v>
@@ -4114,27 +4145,28 @@
       <c r="F33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H33"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="2" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="K33"/>
+        <v>225</v>
+      </c>
+      <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="195">
       <c r="A34" s="2" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>1</v>
@@ -4145,27 +4177,27 @@
       <c r="G34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H34"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="2" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K34"/>
+        <v>58</v>
+      </c>
+      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="90">
       <c r="A35" s="2" t="s">
-        <v>250</v>
+        <v>331</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>1</v>
@@ -4176,27 +4208,27 @@
       <c r="G35" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H35"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="2" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K35"/>
+        <v>59</v>
+      </c>
+      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="60">
       <c r="A36" s="2" t="s">
-        <v>251</v>
+        <v>332</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>252</v>
+        <v>158</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>27</v>
@@ -4207,21 +4239,21 @@
       <c r="G36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H36"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="5" t="s">
-        <v>254</v>
+        <v>315</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K36"/>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="75">
       <c r="A37" s="2" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>36</v>
@@ -4236,25 +4268,25 @@
         <v>52</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H37" t="s">
+        <v>88</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>251</v>
+        <v>332</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K37"/>
+        <v>142</v>
+      </c>
+      <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="90">
       <c r="A38" s="2" t="s">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>258</v>
+        <v>160</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>36</v>
@@ -4269,31 +4301,31 @@
         <v>52</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="H38" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>251</v>
+        <v>332</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K38"/>
+        <v>142</v>
+      </c>
+      <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="60">
       <c r="A39" s="2" t="s">
-        <v>259</v>
+        <v>335</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>27</v>
@@ -4301,27 +4333,28 @@
       <c r="F39" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>202</v>
+        <v>302</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K39"/>
+      <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="45">
       <c r="A40" s="2" t="s">
-        <v>261</v>
+        <v>336</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>262</v>
+        <v>162</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" t="s">
-        <v>263</v>
+        <v>112</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>27</v>
@@ -4329,30 +4362,30 @@
       <c r="F40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G40" t="s">
-        <v>264</v>
-      </c>
-      <c r="H40"/>
+      <c r="G40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H40" s="1"/>
       <c r="I40" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J40" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K40"/>
+      <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="45">
       <c r="A41" s="2" t="s">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>265</v>
+        <v>164</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>170</v>
+        <v>214</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>27</v>
@@ -4360,14 +4393,15 @@
       <c r="F41" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K41"/>
+      <c r="K41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/test-data/ProjectContainerTest.xlsx
+++ b/src/test/test-data/ProjectContainerTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="19440" windowHeight="5385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="19440" windowHeight="5385"/>
   </bookViews>
   <sheets>
     <sheet name="Project - Owner" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>?itemType=all</t>
   </si>
   <si>
-    <t>status=200||contents.patents=0||contents.wos=0||contents.posts=0||contents.documents=0||contents.dra_ss=0||contents.total=0</t>
-  </si>
-  <si>
     <t>{ "ispublic": true }</t>
   </si>
   <si>
@@ -652,9 +649,6 @@
     <t>{"documents":[{"name":"Updated GD name","parent":"container","parentId":"(OPQA-4043_id)","parentType":"document","id":"0B175X3HOM71HN0VDMXpiOW5CVVU","url":"https://drive.google.com/file/d/0B175X3HOM71HcXZkby1qNkFXWFE/view?usp=drive_web"}]}</t>
   </si>
   <si>
-    <t>status=200||id=(OPQA-4043_id)||type=project||userid=(SYS_USER1)||ispublic=false||contents.patents=2||contents.wos=2||contents.posts=2||contents.documents=3||contents.dra_ss=0||contents.total=9</t>
-  </si>
-  <si>
     <t>/container/(OPQA-4043_id)/items?itemType=wos&amp;sortoption=latestupdated</t>
   </si>
   <si>
@@ -694,9 +688,6 @@
     <t>status=200||public_count=1||private_count=0||total_count=1||public[0].id=(OPQA-4043_1_id)</t>
   </si>
   <si>
-    <t>status=200||id=(OPQA-4043_1_id)||type=project||userid=(SYS_USER1)||ispublic=true||contents.patents=2||contents.wos=2||contents.posts=2||contents.documents=1||contents.dra_ss=0||contents.total=7</t>
-  </si>
-  <si>
     <t>/container/(OPQA-4043_1_id)/items/(OPQA-896_hits.hits[0]._id)</t>
   </si>
   <si>
@@ -1037,6 +1028,15 @@
   </si>
   <si>
     <t>/invites/delete/(OPQA-4089_inviteResponses[1].inviteId)</t>
+  </si>
+  <si>
+    <t>status=200||contents.patents=0||contents.wos=0||contents.posts=0||contents.documents=0||contents.sse=0||contents.dra_td_sse=0||contents.ipa_sse=0||contents.total=0</t>
+  </si>
+  <si>
+    <t>status=200||id=(OPQA-4043_id)||type=project||userid=(SYS_USER1)||ispublic=false||contents.patents=2||contents.wos=2||contents.posts=2||contents.documents=3||contents.sse=0||contents.dra_td_sse=0||contents.ipa_sse=0||contents.total=9</t>
+  </si>
+  <si>
+    <t>status=200||id=(OPQA-4043_1_id)||type=project||userid=(SYS_USER1)||ispublic=true||contents.patents=2||contents.wos=2||contents.posts=2||contents.documents=1||contents.sse=0||contents.dra_td_sse=0||contents.ipa_sse=0||contents.total=7</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L51"/>
     </sheetView>
   </sheetViews>
@@ -1539,7 +1539,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L2"/>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="F3"/>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3"/>
@@ -1569,7 +1569,7 @@
         <v>14</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L3"/>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="F4"/>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4"/>
@@ -1599,7 +1599,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L4"/>
     </row>
@@ -1635,10 +1635,10 @@
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="47.25">
       <c r="A6" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>36</v>
@@ -1653,7 +1653,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6"/>
@@ -1665,10 +1665,10 @@
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="360">
       <c r="A7" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>36</v>
@@ -1684,11 +1684,11 @@
       </c>
       <c r="G7"/>
       <c r="H7" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>38</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A8" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>36</v>
@@ -1716,11 +1716,11 @@
       </c>
       <c r="G8"/>
       <c r="H8" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>38</v>
@@ -1729,16 +1729,16 @@
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="300">
       <c r="A9" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>25</v>
@@ -1748,29 +1748,29 @@
       </c>
       <c r="G9"/>
       <c r="H9" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A10" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
@@ -1780,61 +1780,61 @@
       </c>
       <c r="G10"/>
       <c r="H10" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A11" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11"/>
       <c r="H11" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="375">
       <c r="A12" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>25</v>
@@ -1844,29 +1844,29 @@
       </c>
       <c r="G12"/>
       <c r="H12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="375">
       <c r="A13" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>25</v>
@@ -1876,29 +1876,29 @@
       </c>
       <c r="G13"/>
       <c r="H13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="75">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A14" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>1</v>
@@ -1911,26 +1911,26 @@
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>42</v>
+        <v>337</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30">
       <c r="A15" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>1</v>
@@ -1941,26 +1941,26 @@
       <c r="G15"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A16" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>25</v>
@@ -1970,25 +1970,25 @@
       </c>
       <c r="G16"/>
       <c r="H16" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L16"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="47.25">
       <c r="A17" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>36</v>
@@ -2003,30 +2003,30 @@
         <v>26</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A18" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>23</v>
@@ -2035,32 +2035,32 @@
         <v>24</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A19" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>23</v>
@@ -2069,66 +2069,66 @@
         <v>24</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A20" s="2" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A21" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>23</v>
@@ -2137,32 +2137,32 @@
         <v>24</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21"/>
     </row>
     <row r="22" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A22" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>23</v>
@@ -2171,32 +2171,32 @@
         <v>24</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
     </row>
     <row r="23" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A23" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>23</v>
@@ -2205,32 +2205,32 @@
         <v>24</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="375">
       <c r="A24" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>23</v>
@@ -2239,32 +2239,32 @@
         <v>24</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A25" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>23</v>
@@ -2274,29 +2274,29 @@
       </c>
       <c r="G25"/>
       <c r="H25" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="180">
       <c r="A26" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>23</v>
@@ -2306,29 +2306,29 @@
       </c>
       <c r="G26"/>
       <c r="H26" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="120">
       <c r="A27" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>1</v>
@@ -2337,30 +2337,30 @@
         <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A28" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>23</v>
@@ -2370,61 +2370,61 @@
       </c>
       <c r="G28"/>
       <c r="H28" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A29" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G29"/>
       <c r="H29" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A30" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>25</v>
@@ -2434,29 +2434,29 @@
       </c>
       <c r="G30"/>
       <c r="H30" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30"/>
       <c r="L30"/>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A31" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>23</v>
@@ -2466,29 +2466,29 @@
       </c>
       <c r="G31"/>
       <c r="H31" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="180">
       <c r="A32" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>23</v>
@@ -2498,29 +2498,29 @@
       </c>
       <c r="G32"/>
       <c r="H32" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="120">
       <c r="A33" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>23</v>
@@ -2530,29 +2530,29 @@
       </c>
       <c r="G33"/>
       <c r="H33" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A34" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>25</v>
@@ -2562,29 +2562,29 @@
       </c>
       <c r="G34"/>
       <c r="H34" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34"/>
       <c r="L34"/>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A35" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>1</v>
@@ -2593,24 +2593,24 @@
         <v>26</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35"/>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A36" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>36</v>
@@ -2625,30 +2625,30 @@
         <v>26</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K36"/>
       <c r="L36"/>
     </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" ht="105">
+    <row r="37" spans="1:12" s="1" customFormat="1" ht="120">
       <c r="A37" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>1</v>
@@ -2659,26 +2659,26 @@
       <c r="G37"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>211</v>
+        <v>338</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A38" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>1</v>
@@ -2687,26 +2687,26 @@
       <c r="G38"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
     </row>
     <row r="39" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A39" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>1</v>
@@ -2715,26 +2715,26 @@
       <c r="G39"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39"/>
       <c r="L39"/>
     </row>
     <row r="40" spans="1:12" s="1" customFormat="1" ht="195">
       <c r="A40" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>1</v>
@@ -2747,26 +2747,26 @@
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A41" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>1</v>
@@ -2779,26 +2779,26 @@
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A42" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>1</v>
@@ -2807,30 +2807,30 @@
         <v>26</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="30">
       <c r="A43" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>27</v>
@@ -2843,58 +2843,58 @@
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" ht="45">
       <c r="A44" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" ht="30">
       <c r="A45" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>27</v>
@@ -2907,26 +2907,26 @@
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
     </row>
     <row r="46" spans="1:12" ht="75">
       <c r="A46" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>23</v>
@@ -2935,31 +2935,31 @@
         <v>24</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="75">
       <c r="A47" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>23</v>
@@ -2968,31 +2968,31 @@
         <v>24</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="30">
       <c r="A48" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>27</v>
@@ -3003,7 +3003,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>14</v>
@@ -3012,45 +3012,45 @@
     </row>
     <row r="49" spans="1:11" ht="45">
       <c r="A49" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" ht="30">
       <c r="A50" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>27</v>
@@ -3061,7 +3061,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>14</v>
@@ -3070,16 +3070,16 @@
     </row>
     <row r="51" spans="1:11" ht="30">
       <c r="A51" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>27</v>
@@ -3090,10 +3090,10 @@
       <c r="G51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K51" s="1"/>
     </row>
@@ -3113,7 +3113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L41"/>
     </sheetView>
   </sheetViews>
@@ -3173,10 +3173,10 @@
     </row>
     <row r="2" spans="1:12" ht="409.5">
       <c r="A2" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>36</v>
@@ -3192,11 +3192,11 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>38</v>
@@ -3204,43 +3204,43 @@
     </row>
     <row r="3" spans="1:12" ht="45">
       <c r="A3" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="75">
       <c r="A4" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>25</v>
@@ -3250,30 +3250,30 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="105">
       <c r="A5" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -3284,27 +3284,27 @@
       <c r="G5" s="1"/>
       <c r="H5" s="10"/>
       <c r="I5" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75">
       <c r="A6" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -3314,30 +3314,30 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75">
       <c r="A7" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -3347,97 +3347,97 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="120">
       <c r="A8" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="60">
       <c r="A9" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="45">
       <c r="A10" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>14</v>
@@ -3446,16 +3446,16 @@
     </row>
     <row r="11" spans="1:12" ht="105">
       <c r="A11" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
@@ -3466,65 +3466,65 @@
       <c r="G11" s="1"/>
       <c r="H11" s="10"/>
       <c r="I11" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="60">
       <c r="A12" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="45">
       <c r="A13" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>14</v>
@@ -3533,27 +3533,27 @@
     </row>
     <row r="14" spans="1:12" ht="45">
       <c r="A14" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>14</v>
@@ -3562,16 +3562,16 @@
     </row>
     <row r="15" spans="1:12" ht="75">
       <c r="A15" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>1</v>
@@ -3582,500 +3582,500 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="75">
       <c r="A16" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="75">
       <c r="A17" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="75">
       <c r="A18" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="75">
       <c r="A19" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="75">
       <c r="A20" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="195">
       <c r="A21" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="135">
       <c r="A22" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="255">
       <c r="A23" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="135">
       <c r="A24" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="135">
       <c r="A25" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="120">
       <c r="A26" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="120">
       <c r="A27" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" ht="255">
       <c r="A28" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" ht="135">
       <c r="A29" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" ht="120">
       <c r="A30" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="105">
       <c r="A31" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>25</v>
@@ -4085,22 +4085,22 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="60">
       <c r="A32" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>36</v>
@@ -4112,262 +4112,262 @@
         <v>1</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="120">
+    <row r="33" spans="1:11" ht="135">
       <c r="A33" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>225</v>
+        <v>339</v>
       </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="195">
       <c r="A34" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>41</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="90">
       <c r="A35" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="60">
       <c r="A36" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="75">
       <c r="A37" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="90">
       <c r="A38" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="60">
       <c r="A39" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="45">
       <c r="A40" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>14</v>
@@ -4376,16 +4376,16 @@
     </row>
     <row r="41" spans="1:11" ht="45">
       <c r="A41" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>27</v>
@@ -4396,7 +4396,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>14</v>

--- a/src/test/test-data/ProjectContainerTest.xlsx
+++ b/src/test/test-data/ProjectContainerTest.xlsx
@@ -56,15 +56,9 @@
     <t>DEPENDENCYTESTS</t>
   </si>
   <si>
-    <t>hits.hits._id</t>
-  </si>
-  <si>
     <t>status=200</t>
   </si>
   <si>
-    <t>1PSEARCHV3</t>
-  </si>
-  <si>
     <t>OPQA-896</t>
   </si>
   <si>
@@ -149,27 +143,12 @@
     <t>/container/contains/items</t>
   </si>
   <si>
-    <t>{ "items" : [ {"id": "(OPQA-896_hits.hits[0]._id)", "type": "wos"}] }</t>
-  </si>
-  <si>
-    <t>/container/items/contains/(OPQA-896_hits.hits[0]._id)</t>
-  </si>
-  <si>
     <t>status=400</t>
   </si>
   <si>
     <t>status=200||code=200</t>
   </si>
   <si>
-    <t>{"items" : [{"id": "(OPQA-896_hits.hits[0]._id)", "type": "wos"}, {"id": "(OPQA-896_hits.hits[1]._id)", "type": "wos"}, {"id": "(OPQA-898_hits.hits[0]._id)", "type": "patents"}, {"id": "(OPQA-898_hits.hits[1]._id)", "type": "patents"}, {"id": "(OPQA-897_hits.hits[0]._id)", "type": "posts"}, {"id": "(OPQA-897_hits.hits[1]._id)", "type": "posts"} ] }</t>
-  </si>
-  <si>
-    <t>status=200||(OPQA-896_hits.hits[0]._id).itemExists=false||(OPQA-896_hits.hits[0]._id).numberTotalContainers=2</t>
-  </si>
-  <si>
-    <t>status=200||(OPQA-896_hits.hits[0]._id).itemExists=true||(OPQA-896_hits.hits[0]._id).numberTotalContainers=2</t>
-  </si>
-  <si>
     <t>X-1P-User=(SYS_USER2)||Content-Type=application/json</t>
   </si>
   <si>
@@ -182,25 +161,13 @@
     <t>status=500||errorcode=500</t>
   </si>
   <si>
-    <t>status=200||type=wos||id=(OPQA-896_hits.hits[0]._id)||||id=(OPQA-896_hits.hits[1]._id)</t>
-  </si>
-  <si>
     <t>status=200||public_count=1||private_count=1||total_count=2</t>
   </si>
   <si>
-    <t>status=200||content_items.id=(OPQA-896_hits.hits[0]._id)||content_items.id=(OPQA-896_hits.hits[1]._id)||content_items.id=(OPQA-897_hits.hits[0]._id)||content_items.id=(OPQA-897_hits.hits[1]._id)||content_items.id=(OPQA-898_hits.hits[0]._id)||content_items.id=(OPQA-898_hits.hits[1]._id)</t>
-  </si>
-  <si>
-    <t>status=200||content_items.id=(OPQA-896_hits.hits[0]._id)||content_items.id=(OPQA-896_hits.hits[1]._id)||content_items[0].type=wos</t>
-  </si>
-  <si>
     <t>?query=cancer&amp;size=3</t>
   </si>
   <si>
     <t>?query=test post&amp;size=3</t>
-  </si>
-  <si>
-    <t>hits.hits[0]._id||hits.hits[1]._id||hits.hits[2]._id</t>
   </si>
   <si>
     <t>?filter=count&amp;type=project</t>
@@ -307,9 +274,6 @@
     <t>Verify that owner/member able to see multiple items added status to a project using container API</t>
   </si>
   <si>
-    <t>status=200||(OPQA-896_hits.hits[0]._id).itemExists=true||(OPQA-896_hits.hits[0]._id).numberTotalContainers=2||(OPQA-896_hits.hits[1]._id).itemExists=true||(OPQA-896_hits.hits[1]._id).numberTotalContainers=2||(OPQA-896_hits.hits[0]._id).itemExists=true||(OPQA-897_hits.hits[0]._id).numberTotalContainers=2||(OPQA-896_hits.hits[1]._id).itemExists=true||(OPQA-897_hits.hits[1]._id).numberTotalContainers=2||(OPQA-898_hits.hits[0]._id).itemExists=true||(OPQA-896_hits.hits[0]._id).numberTotalContainers=2||(OPQA-898_hits.hits[1]._id).itemExists=true||(OPQA-896_hits.hits[1]._id).numberTotalContainers=2</t>
-  </si>
-  <si>
     <t>Verify that container API returns list of user ids with project ids who are added a particular item to their projects</t>
   </si>
   <si>
@@ -442,9 +406,6 @@
     <t>Verify that project member able to see particular item added status to a project using container API</t>
   </si>
   <si>
-    <t>status=200||(OPQA-896_hits.hits[0]._id).itemExists=false</t>
-  </si>
-  <si>
     <t>Verify that project member is able to add an item to a invited project using container API</t>
   </si>
   <si>
@@ -454,18 +415,12 @@
     <t>Verify that project member is able to see item added status to a project using container API</t>
   </si>
   <si>
-    <t>status=200||(OPQA-896_hits.hits[0]._id).itemExists=true</t>
-  </si>
-  <si>
     <t>Verify that project member is able to add multiple items like patent, post, wos to a particular project using container API</t>
   </si>
   <si>
     <t>Verify that project member able to see multiple items added status to a project using container API</t>
   </si>
   <si>
-    <t>status=200||(OPQA-896_hits.hits[0]._id).itemExists=true||(OPQA-896_hits.hits[1]._id).itemExists=true||(OPQA-896_hits.hits[0]._id).itemExists=true||(OPQA-896_hits.hits[1]._id).itemExists=true||(OPQA-898_hits.hits[0]._id).itemExists=true||(OPQA-898_hits.hits[1]._id).itemExists=true</t>
-  </si>
-  <si>
     <t>Verify that get project containers for a project owner works as expected using container API</t>
   </si>
   <si>
@@ -538,27 +493,15 @@
     <t>Verify that project owner able to attach single GD document to wos item for a specific project container ID using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"docType":"file","id":"0B175X3HOM71HZm01eEM0dWRoMHM","name":"RCCStories_for QA.docx","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B175X3HOM71HZm01eEM0dWRoMHM/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>Verify that project owner able to attach multiple GD documents to the wos item for a specific project container ID using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"docType":"file","id":"0B175X3HOM71HYzQxSGpvUGNoTW8","name":"AddGDItem1TOWOS.docx","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B175X3HOM71HYzQxSGpvUGNoTW8/view?usp=drive_web"}, {"docType":"file","id":"0B175X3HOM71HLVBsSkFLUk51bXc","name":"AddGDItem2TOWOS.docx","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B175X3HOM71HLVBsSkFLUk51bXc/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>Verify that project owner is able to edit and update attached GD document to an item using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.xlsx","desc":"Updated GD document for wos item through container API","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","id":"0B175X3HOM71HZm01eEM0dWRoMHM","url":"https://drive.google.com/file/d/0B175X3HOM71HZm01eEM0dWRoMHM/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>Verify that project owner is able to delete attached GD document from an item in a project container using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.xlsx","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","id":"0B175X3HOM71HZm01eEM0dWRoMHM","url":"https://drive.google.com/file/d/0B175X3HOM71HZm01eEM0dWRoMHM/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>Verify that unauthorized user is not able to delete attached GD document from a project container and check the error status using container API</t>
   </si>
   <si>
@@ -589,30 +532,18 @@
     <t>Verify that project member is able to attach single GD document to wos item for the invited project container using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"docType":"file","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","name":"DOC-964580-IAM.pdf","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>Verify that project member is able to attach multiple GD documents to the wos item for the invited project container using container API</t>
   </si>
   <si>
     <t>Verify that project member is able to edit and update attached GD document to an item using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.pdf","desc":"Updated GD document for wos item through container API","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>Verify that project member is able to delete attached GD document from an item in an invited project container using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.xlsx","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>Verify that project owner is able to delete member attached GD document from a project container using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"docType":"file","id":"0B9w9MV6gmwPjS3Blam4xek5Zb1E","name":"DOC-964581-Authoring.pdf","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjS3Blam4xek5Zb1E/view?usp=drive_web"}, {"docType":"file","id":"0B9w9MV6gmwPjZDlyRFAyc0g5UWc","name":"DOC-968512-Search.pdf","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjZDlyRFAyc0g5UWc/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>OPQA-4042</t>
   </si>
   <si>
@@ -652,9 +583,6 @@
     <t>/container/(OPQA-4043_id)/items?itemType=wos&amp;sortoption=latestupdated</t>
   </si>
   <si>
-    <t>/container/(OPQA-4043_id)/items/(OPQA-896_hits.hits[0]._id)</t>
-  </si>
-  <si>
     <t>/container/(OPQA-4043_1_id)</t>
   </si>
   <si>
@@ -688,9 +616,6 @@
     <t>status=200||public_count=1||private_count=0||total_count=1||public[0].id=(OPQA-4043_1_id)</t>
   </si>
   <si>
-    <t>/container/(OPQA-4043_1_id)/items/(OPQA-896_hits.hits[0]._id)</t>
-  </si>
-  <si>
     <t>OPQA-4044</t>
   </si>
   <si>
@@ -718,9 +643,6 @@
     <t>status=200||public_count=1||private_count=1||total_count=2||public[0].id=(OPQA-4044_id)||private[0].id=(OPQA-4043_id)</t>
   </si>
   <si>
-    <t>/container/(OPQA-4044_id)/items/(OPQA-896_hits.hits[0]._id)</t>
-  </si>
-  <si>
     <t>OPQA-4044||OPQA-896</t>
   </si>
   <si>
@@ -1037,6 +959,84 @@
   </si>
   <si>
     <t>status=200||id=(OPQA-4043_1_id)||type=project||userid=(SYS_USER1)||ispublic=true||contents.patents=2||contents.wos=2||contents.posts=2||contents.documents=1||contents.sse=0||contents.dra_td_sse=0||contents.ipa_sse=0||contents.total=7</t>
+  </si>
+  <si>
+    <t>hits[0].id||hits[1].id||hits[2].id</t>
+  </si>
+  <si>
+    <t>hits[0]._id</t>
+  </si>
+  <si>
+    <t>{ "items" : [ {"id": "(OPQA-896_hits[0].id)", "type": "wos"}] }</t>
+  </si>
+  <si>
+    <t>status=200||(OPQA-896_hits[0].id).itemExists=false||(OPQA-896_hits[0].id).numberTotalContainers=2</t>
+  </si>
+  <si>
+    <t>status=200||(OPQA-896_hits[0].id).itemExists=true||(OPQA-896_hits[0].id).numberTotalContainers=2</t>
+  </si>
+  <si>
+    <t>{"items" : [{"id": "(OPQA-896_hits[0].id)", "type": "wos"}, {"id": "(OPQA-896_hits[1].id)", "type": "wos"}, {"id": "(OPQA-898_hits[0].id)", "type": "patents"}, {"id": "(OPQA-898_hits[1].id)", "type": "patents"}, {"id": "(OPQA-897_hits[0].id)", "type": "posts"}, {"id": "(OPQA-897_hits[1].id)", "type": "posts"} ] }</t>
+  </si>
+  <si>
+    <t>status=200||(OPQA-896_hits[0].id).itemExists=true||(OPQA-896_hits[0].id).numberTotalContainers=2||(OPQA-896_hits[1].id).itemExists=true||(OPQA-896_hits[1].id).numberTotalContainers=2||(OPQA-896_hits[0].id).itemExists=true||(OPQA-897_hits[0].id).numberTotalContainers=2||(OPQA-896_hits[1].id).itemExists=true||(OPQA-897_hits[1].id).numberTotalContainers=2||(OPQA-898_hits[0].id).itemExists=true||(OPQA-896_hits[0].id).numberTotalContainers=2||(OPQA-898_hits[1].id).itemExists=true||(OPQA-896_hits[1].id).numberTotalContainers=2</t>
+  </si>
+  <si>
+    <t>{"documents":[{"docType":"file","id":"0B175X3HOM71HZm01eEM0dWRoMHM","name":"RCCStories_for QA.docx","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","url":"https://drive.google.com/file/d/0B175X3HOM71HZm01eEM0dWRoMHM/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"docType":"file","id":"0B175X3HOM71HYzQxSGpvUGNoTW8","name":"AddGDItem1TOWOS.docx","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","url":"https://drive.google.com/file/d/0B175X3HOM71HYzQxSGpvUGNoTW8/view?usp=drive_web"}, {"docType":"file","id":"0B175X3HOM71HLVBsSkFLUk51bXc","name":"AddGDItem2TOWOS.docx","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","url":"https://drive.google.com/file/d/0B175X3HOM71HLVBsSkFLUk51bXc/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.xlsx","desc":"Updated GD document for wos item through container API","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","id":"0B175X3HOM71HZm01eEM0dWRoMHM","url":"https://drive.google.com/file/d/0B175X3HOM71HZm01eEM0dWRoMHM/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.xlsx","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","id":"0B175X3HOM71HZm01eEM0dWRoMHM","url":"https://drive.google.com/file/d/0B175X3HOM71HZm01eEM0dWRoMHM/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>/container/items/contains/(OPQA-896_hits[0].id)</t>
+  </si>
+  <si>
+    <t>status=200||type=wos||id=(OPQA-896_hits[0].id)||||id=(OPQA-896_hits[1].id)</t>
+  </si>
+  <si>
+    <t>status=200||content_items.id=(OPQA-896_hits[0].id)||content_items.id=(OPQA-896_hits[1].id)||content_items.id=(OPQA-897_hits[0].id)||content_items.id=(OPQA-897_hits[1].id)||content_items.id=(OPQA-898_hits[0].id)||content_items.id=(OPQA-898_hits[1].id)</t>
+  </si>
+  <si>
+    <t>status=200||content_items.id=(OPQA-896_hits[0].id)||content_items.id=(OPQA-896_hits[1].id)||content_items[0].type=wos</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4043_id)/items/(OPQA-896_hits[0].id)</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4044_id)/items/(OPQA-896_hits[0].id)</t>
+  </si>
+  <si>
+    <t>status=200||(OPQA-896_hits[0].id).itemExists=false</t>
+  </si>
+  <si>
+    <t>status=200||(OPQA-896_hits[0].id).itemExists=true</t>
+  </si>
+  <si>
+    <t>{"documents":[{"docType":"file","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","name":"DOC-964580-IAM.pdf","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"docType":"file","id":"0B9w9MV6gmwPjS3Blam4xek5Zb1E","name":"DOC-964581-Authoring.pdf","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjS3Blam4xek5Zb1E/view?usp=drive_web"}, {"docType":"file","id":"0B9w9MV6gmwPjZDlyRFAyc0g5UWc","name":"DOC-968512-Search.pdf","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjZDlyRFAyc0g5UWc/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.pdf","desc":"Updated GD document for wos item through container API","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.xlsx","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4043_1_id)/items/(OPQA-896_hits[0].id)</t>
+  </si>
+  <si>
+    <t>status=200||(OPQA-896_hits[0].id).itemExists=true||(OPQA-896_hits[1].id).itemExists=true||(OPQA-896_hits[0].id).itemExists=true||(OPQA-896_hits[1].id).itemExists=true||(OPQA-898_hits[0].id).itemExists=true||(OPQA-898_hits[1].id).itemExists=true</t>
+  </si>
+  <si>
+    <t>1PSEARCHV4</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L51"/>
     </sheetView>
   </sheetViews>
@@ -1513,1172 +1513,1172 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="60">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="45">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2"/>
       <c r="J2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>61</v>
+        <v>314</v>
       </c>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="60">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="45">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>339</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3"/>
       <c r="J3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>61</v>
+        <v>314</v>
       </c>
       <c r="L3"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="60">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="45">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>339</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4"/>
       <c r="J4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>61</v>
+        <v>314</v>
       </c>
       <c r="L4"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="15.75">
       <c r="A5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>339</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5"/>
       <c r="J5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>13</v>
+        <v>315</v>
       </c>
       <c r="L5"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="47.25">
       <c r="A6" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6"/>
       <c r="J6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="360">
       <c r="A7" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7"/>
       <c r="H7" s="10" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A8" s="2" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8"/>
       <c r="H8" s="10" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L8"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="300">
       <c r="A9" s="2" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9"/>
       <c r="H9" s="10" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A10" s="2" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10"/>
       <c r="H10" s="10" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A11" s="2" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G11"/>
       <c r="H11" s="10" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="375">
       <c r="A12" s="2" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12"/>
       <c r="H12" s="10" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="375">
       <c r="A13" s="2" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G13"/>
       <c r="H13" s="10" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13"/>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A14" s="2" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30">
       <c r="A15" s="2" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A16" s="2" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G16"/>
       <c r="H16" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="L16"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="47.25">
       <c r="A17" s="2" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A18" s="2" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A19" s="2" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A20" s="2" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A21" s="2" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>50</v>
+        <v>318</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="105">
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A22" s="2" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="105">
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A23" s="2" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="375">
       <c r="A24" s="2" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>96</v>
+        <v>320</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A25" s="2" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G25"/>
       <c r="H25" s="10" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="180">
       <c r="A26" s="2" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26"/>
       <c r="H26" s="10" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="120">
       <c r="A27" s="2" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="2" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A28" s="2" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G28"/>
       <c r="H28" s="10" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>254</v>
+        <v>228</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A29" s="2" t="s">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="G29"/>
       <c r="H29" s="10" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A30" s="2" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G30"/>
       <c r="H30" s="10" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K30"/>
       <c r="L30"/>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A31" s="2" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G31"/>
       <c r="H31" s="10" t="s">
-        <v>173</v>
+        <v>321</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="180">
       <c r="A32" s="2" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G32"/>
       <c r="H32" s="10" t="s">
-        <v>175</v>
+        <v>322</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="120">
       <c r="A33" s="2" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G33"/>
       <c r="H33" s="10" t="s">
-        <v>177</v>
+        <v>323</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A34" s="2" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G34"/>
       <c r="H34" s="10" t="s">
-        <v>179</v>
+        <v>324</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K34"/>
       <c r="L34"/>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A35" s="2" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="5" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35"/>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A36" s="2" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="2" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="K36"/>
       <c r="L36"/>
     </row>
     <row r="37" spans="1:12" s="1" customFormat="1" ht="120">
       <c r="A37" s="2" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G37"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>261</v>
+        <v>235</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A38" s="2" t="s">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>1</v>
@@ -2687,26 +2687,26 @@
       <c r="G38"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" ht="60">
+    <row r="39" spans="1:12" s="1" customFormat="1" ht="45">
       <c r="A39" s="2" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>1</v>
@@ -2715,385 +2715,385 @@
       <c r="G39"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>55</v>
+        <v>326</v>
       </c>
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" ht="195">
+    <row r="40" spans="1:12" s="1" customFormat="1" ht="180">
       <c r="A40" s="2" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>57</v>
+        <v>327</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A41" s="2" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>58</v>
+        <v>328</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A42" s="2" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="30">
       <c r="A43" s="2" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>211</v>
+        <v>329</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="5" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" ht="45">
       <c r="A44" s="2" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>211</v>
+        <v>329</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="5" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" ht="30">
       <c r="A45" s="2" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>233</v>
+        <v>330</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="5" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
     </row>
     <row r="46" spans="1:12" ht="75">
       <c r="A46" s="2" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="75">
       <c r="A47" s="2" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>49</v>
+        <v>317</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="30">
       <c r="A48" s="2" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" ht="45">
       <c r="A49" s="2" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" ht="30">
       <c r="A50" s="2" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" ht="30">
       <c r="A51" s="2" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K51" s="1"/>
     </row>
@@ -3113,7 +3113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L41"/>
     </sheetView>
   </sheetViews>
@@ -3173,1233 +3173,1233 @@
     </row>
     <row r="2" spans="1:12" ht="409.5">
       <c r="A2" s="2" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="2" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45">
       <c r="A3" s="2" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="10" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="75">
       <c r="A4" s="2" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="105">
       <c r="A5" s="2" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="10"/>
       <c r="I5" s="2" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75">
       <c r="A6" s="2" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75">
       <c r="A7" s="2" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="120">
       <c r="A8" s="2" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="1" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="2" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="60">
       <c r="A9" s="2" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="45">
       <c r="A10" s="2" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="2" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="105">
       <c r="A11" s="2" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="10"/>
       <c r="I11" s="2" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="60">
       <c r="A12" s="2" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="45">
       <c r="A13" s="2" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="45">
       <c r="A14" s="2" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="75">
       <c r="A15" s="2" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="2" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="75">
       <c r="A16" s="2" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="10" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="75">
       <c r="A17" s="2" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>141</v>
+        <v>331</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="75">
       <c r="A18" s="2" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="75">
       <c r="A19" s="2" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>145</v>
+        <v>332</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="75">
       <c r="A20" s="2" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="195">
       <c r="A21" s="2" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>148</v>
+        <v>338</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="135">
       <c r="A22" s="2" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="10" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="255">
       <c r="A23" s="2" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="10" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="135">
       <c r="A24" s="2" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="2" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="135">
       <c r="A25" s="2" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="10" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="120">
       <c r="A26" s="2" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="10" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="120">
       <c r="A27" s="2" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="10" t="s">
-        <v>190</v>
+        <v>333</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="255">
+    <row r="28" spans="1:11" ht="225">
       <c r="A28" s="2" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="10" t="s">
-        <v>197</v>
+        <v>334</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="135">
+    <row r="29" spans="1:11" ht="120">
       <c r="A29" s="2" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>216</v>
-      </c>
       <c r="E29" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="10" t="s">
-        <v>193</v>
+        <v>335</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="120">
+    <row r="30" spans="1:11" ht="105">
       <c r="A30" s="2" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="10" t="s">
-        <v>195</v>
+        <v>336</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="105">
       <c r="A31" s="2" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="10" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="60">
       <c r="A32" s="2" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="2" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="135">
       <c r="A33" s="2" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="2" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>339</v>
+        <v>313</v>
       </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="195">
+    <row r="34" spans="1:11" ht="180">
       <c r="A34" s="2" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="2" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>57</v>
+        <v>327</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="90">
       <c r="A35" s="2" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="2" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>58</v>
+        <v>328</v>
       </c>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="60">
       <c r="A36" s="2" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>223</v>
+        <v>337</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="5" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="75">
       <c r="A37" s="2" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>44</v>
+        <v>316</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>141</v>
+        <v>331</v>
       </c>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="90">
       <c r="A38" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>141</v>
       </c>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="60">
       <c r="A39" s="2" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="45">
       <c r="A40" s="2" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="2" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="45">
       <c r="A41" s="2" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K41" s="1"/>
     </row>

--- a/src/test/test-data/ProjectContainerTest.xlsx
+++ b/src/test/test-data/ProjectContainerTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="19440" windowHeight="5385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="19440" windowHeight="5385"/>
   </bookViews>
   <sheets>
     <sheet name="Project - Owner" sheetId="1" r:id="rId1"/>
@@ -56,15 +56,9 @@
     <t>DEPENDENCYTESTS</t>
   </si>
   <si>
-    <t>hits.hits._id</t>
-  </si>
-  <si>
     <t>status=200</t>
   </si>
   <si>
-    <t>1PSEARCHV3</t>
-  </si>
-  <si>
     <t>OPQA-896</t>
   </si>
   <si>
@@ -143,36 +137,18 @@
     <t>?itemType=all</t>
   </si>
   <si>
-    <t>status=200||contents.patents=0||contents.wos=0||contents.posts=0||contents.documents=0||contents.dra_ss=0||contents.total=0</t>
-  </si>
-  <si>
     <t>{ "ispublic": true }</t>
   </si>
   <si>
     <t>/container/contains/items</t>
   </si>
   <si>
-    <t>{ "items" : [ {"id": "(OPQA-896_hits.hits[0]._id)", "type": "wos"}] }</t>
-  </si>
-  <si>
-    <t>/container/items/contains/(OPQA-896_hits.hits[0]._id)</t>
-  </si>
-  <si>
     <t>status=400</t>
   </si>
   <si>
     <t>status=200||code=200</t>
   </si>
   <si>
-    <t>{"items" : [{"id": "(OPQA-896_hits.hits[0]._id)", "type": "wos"}, {"id": "(OPQA-896_hits.hits[1]._id)", "type": "wos"}, {"id": "(OPQA-898_hits.hits[0]._id)", "type": "patents"}, {"id": "(OPQA-898_hits.hits[1]._id)", "type": "patents"}, {"id": "(OPQA-897_hits.hits[0]._id)", "type": "posts"}, {"id": "(OPQA-897_hits.hits[1]._id)", "type": "posts"} ] }</t>
-  </si>
-  <si>
-    <t>status=200||(OPQA-896_hits.hits[0]._id).itemExists=false||(OPQA-896_hits.hits[0]._id).numberTotalContainers=2</t>
-  </si>
-  <si>
-    <t>status=200||(OPQA-896_hits.hits[0]._id).itemExists=true||(OPQA-896_hits.hits[0]._id).numberTotalContainers=2</t>
-  </si>
-  <si>
     <t>X-1P-User=(SYS_USER2)||Content-Type=application/json</t>
   </si>
   <si>
@@ -185,25 +161,13 @@
     <t>status=500||errorcode=500</t>
   </si>
   <si>
-    <t>status=200||type=wos||id=(OPQA-896_hits.hits[0]._id)||||id=(OPQA-896_hits.hits[1]._id)</t>
-  </si>
-  <si>
     <t>status=200||public_count=1||private_count=1||total_count=2</t>
   </si>
   <si>
-    <t>status=200||content_items.id=(OPQA-896_hits.hits[0]._id)||content_items.id=(OPQA-896_hits.hits[1]._id)||content_items.id=(OPQA-897_hits.hits[0]._id)||content_items.id=(OPQA-897_hits.hits[1]._id)||content_items.id=(OPQA-898_hits.hits[0]._id)||content_items.id=(OPQA-898_hits.hits[1]._id)</t>
-  </si>
-  <si>
-    <t>status=200||content_items.id=(OPQA-896_hits.hits[0]._id)||content_items.id=(OPQA-896_hits.hits[1]._id)||content_items[0].type=wos</t>
-  </si>
-  <si>
     <t>?query=cancer&amp;size=3</t>
   </si>
   <si>
     <t>?query=test post&amp;size=3</t>
-  </si>
-  <si>
-    <t>hits.hits[0]._id||hits.hits[1]._id||hits.hits[2]._id</t>
   </si>
   <si>
     <t>?filter=count&amp;type=project</t>
@@ -310,9 +274,6 @@
     <t>Verify that owner/member able to see multiple items added status to a project using container API</t>
   </si>
   <si>
-    <t>status=200||(OPQA-896_hits.hits[0]._id).itemExists=true||(OPQA-896_hits.hits[0]._id).numberTotalContainers=2||(OPQA-896_hits.hits[1]._id).itemExists=true||(OPQA-896_hits.hits[1]._id).numberTotalContainers=2||(OPQA-896_hits.hits[0]._id).itemExists=true||(OPQA-897_hits.hits[0]._id).numberTotalContainers=2||(OPQA-896_hits.hits[1]._id).itemExists=true||(OPQA-897_hits.hits[1]._id).numberTotalContainers=2||(OPQA-898_hits.hits[0]._id).itemExists=true||(OPQA-896_hits.hits[0]._id).numberTotalContainers=2||(OPQA-898_hits.hits[1]._id).itemExists=true||(OPQA-896_hits.hits[1]._id).numberTotalContainers=2</t>
-  </si>
-  <si>
     <t>Verify that container API returns list of user ids with project ids who are added a particular item to their projects</t>
   </si>
   <si>
@@ -445,9 +406,6 @@
     <t>Verify that project member able to see particular item added status to a project using container API</t>
   </si>
   <si>
-    <t>status=200||(OPQA-896_hits.hits[0]._id).itemExists=false</t>
-  </si>
-  <si>
     <t>Verify that project member is able to add an item to a invited project using container API</t>
   </si>
   <si>
@@ -457,18 +415,12 @@
     <t>Verify that project member is able to see item added status to a project using container API</t>
   </si>
   <si>
-    <t>status=200||(OPQA-896_hits.hits[0]._id).itemExists=true</t>
-  </si>
-  <si>
     <t>Verify that project member is able to add multiple items like patent, post, wos to a particular project using container API</t>
   </si>
   <si>
     <t>Verify that project member able to see multiple items added status to a project using container API</t>
   </si>
   <si>
-    <t>status=200||(OPQA-896_hits.hits[0]._id).itemExists=true||(OPQA-896_hits.hits[1]._id).itemExists=true||(OPQA-896_hits.hits[0]._id).itemExists=true||(OPQA-896_hits.hits[1]._id).itemExists=true||(OPQA-898_hits.hits[0]._id).itemExists=true||(OPQA-898_hits.hits[1]._id).itemExists=true</t>
-  </si>
-  <si>
     <t>Verify that get project containers for a project owner works as expected using container API</t>
   </si>
   <si>
@@ -541,27 +493,15 @@
     <t>Verify that project owner able to attach single GD document to wos item for a specific project container ID using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"docType":"file","id":"0B175X3HOM71HZm01eEM0dWRoMHM","name":"RCCStories_for QA.docx","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B175X3HOM71HZm01eEM0dWRoMHM/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>Verify that project owner able to attach multiple GD documents to the wos item for a specific project container ID using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"docType":"file","id":"0B175X3HOM71HYzQxSGpvUGNoTW8","name":"AddGDItem1TOWOS.docx","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B175X3HOM71HYzQxSGpvUGNoTW8/view?usp=drive_web"}, {"docType":"file","id":"0B175X3HOM71HLVBsSkFLUk51bXc","name":"AddGDItem2TOWOS.docx","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B175X3HOM71HLVBsSkFLUk51bXc/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>Verify that project owner is able to edit and update attached GD document to an item using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.xlsx","desc":"Updated GD document for wos item through container API","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","id":"0B175X3HOM71HZm01eEM0dWRoMHM","url":"https://drive.google.com/file/d/0B175X3HOM71HZm01eEM0dWRoMHM/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>Verify that project owner is able to delete attached GD document from an item in a project container using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.xlsx","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","id":"0B175X3HOM71HZm01eEM0dWRoMHM","url":"https://drive.google.com/file/d/0B175X3HOM71HZm01eEM0dWRoMHM/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>Verify that unauthorized user is not able to delete attached GD document from a project container and check the error status using container API</t>
   </si>
   <si>
@@ -592,30 +532,18 @@
     <t>Verify that project member is able to attach single GD document to wos item for the invited project container using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"docType":"file","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","name":"DOC-964580-IAM.pdf","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>Verify that project member is able to attach multiple GD documents to the wos item for the invited project container using container API</t>
   </si>
   <si>
     <t>Verify that project member is able to edit and update attached GD document to an item using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.pdf","desc":"Updated GD document for wos item through container API","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>Verify that project member is able to delete attached GD document from an item in an invited project container using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.xlsx","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>Verify that project owner is able to delete member attached GD document from a project container using container API</t>
   </si>
   <si>
-    <t>{"documents":[{"docType":"file","id":"0B9w9MV6gmwPjS3Blam4xek5Zb1E","name":"DOC-964581-Authoring.pdf","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjS3Blam4xek5Zb1E/view?usp=drive_web"}, {"docType":"file","id":"0B9w9MV6gmwPjZDlyRFAyc0g5UWc","name":"DOC-968512-Search.pdf","parent":"item","parentId":"(OPQA-896_hits.hits[0]._id)","parentType":"wos","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjZDlyRFAyc0g5UWc/view?usp=drive_web"}]}</t>
-  </si>
-  <si>
     <t>OPQA-4042</t>
   </si>
   <si>
@@ -652,15 +580,9 @@
     <t>{"documents":[{"name":"Updated GD name","parent":"container","parentId":"(OPQA-4043_id)","parentType":"document","id":"0B175X3HOM71HN0VDMXpiOW5CVVU","url":"https://drive.google.com/file/d/0B175X3HOM71HcXZkby1qNkFXWFE/view?usp=drive_web"}]}</t>
   </si>
   <si>
-    <t>status=200||id=(OPQA-4043_id)||type=project||userid=(SYS_USER1)||ispublic=false||contents.patents=2||contents.wos=2||contents.posts=2||contents.documents=3||contents.dra_ss=0||contents.total=9</t>
-  </si>
-  <si>
     <t>/container/(OPQA-4043_id)/items?itemType=wos&amp;sortoption=latestupdated</t>
   </si>
   <si>
-    <t>/container/(OPQA-4043_id)/items/(OPQA-896_hits.hits[0]._id)</t>
-  </si>
-  <si>
     <t>/container/(OPQA-4043_1_id)</t>
   </si>
   <si>
@@ -694,12 +616,6 @@
     <t>status=200||public_count=1||private_count=0||total_count=1||public[0].id=(OPQA-4043_1_id)</t>
   </si>
   <si>
-    <t>status=200||id=(OPQA-4043_1_id)||type=project||userid=(SYS_USER1)||ispublic=true||contents.patents=2||contents.wos=2||contents.posts=2||contents.documents=1||contents.dra_ss=0||contents.total=7</t>
-  </si>
-  <si>
-    <t>/container/(OPQA-4043_1_id)/items/(OPQA-896_hits.hits[0]._id)</t>
-  </si>
-  <si>
     <t>OPQA-4044</t>
   </si>
   <si>
@@ -727,9 +643,6 @@
     <t>status=200||public_count=1||private_count=1||total_count=2||public[0].id=(OPQA-4044_id)||private[0].id=(OPQA-4043_id)</t>
   </si>
   <si>
-    <t>/container/(OPQA-4044_id)/items/(OPQA-896_hits.hits[0]._id)</t>
-  </si>
-  <si>
     <t>OPQA-4044||OPQA-896</t>
   </si>
   <si>
@@ -1037,6 +950,93 @@
   </si>
   <si>
     <t>/invites/delete/(OPQA-4089_inviteResponses[1].inviteId)</t>
+  </si>
+  <si>
+    <t>status=200||contents.patents=0||contents.wos=0||contents.posts=0||contents.documents=0||contents.sse=0||contents.dra_td_sse=0||contents.ipa_sse=0||contents.total=0</t>
+  </si>
+  <si>
+    <t>status=200||id=(OPQA-4043_id)||type=project||userid=(SYS_USER1)||ispublic=false||contents.patents=2||contents.wos=2||contents.posts=2||contents.documents=3||contents.sse=0||contents.dra_td_sse=0||contents.ipa_sse=0||contents.total=9</t>
+  </si>
+  <si>
+    <t>status=200||id=(OPQA-4043_1_id)||type=project||userid=(SYS_USER1)||ispublic=true||contents.patents=2||contents.wos=2||contents.posts=2||contents.documents=1||contents.sse=0||contents.dra_td_sse=0||contents.ipa_sse=0||contents.total=7</t>
+  </si>
+  <si>
+    <t>hits[0].id||hits[1].id||hits[2].id</t>
+  </si>
+  <si>
+    <t>hits[0]._id</t>
+  </si>
+  <si>
+    <t>{ "items" : [ {"id": "(OPQA-896_hits[0].id)", "type": "wos"}] }</t>
+  </si>
+  <si>
+    <t>status=200||(OPQA-896_hits[0].id).itemExists=false||(OPQA-896_hits[0].id).numberTotalContainers=2</t>
+  </si>
+  <si>
+    <t>status=200||(OPQA-896_hits[0].id).itemExists=true||(OPQA-896_hits[0].id).numberTotalContainers=2</t>
+  </si>
+  <si>
+    <t>{"items" : [{"id": "(OPQA-896_hits[0].id)", "type": "wos"}, {"id": "(OPQA-896_hits[1].id)", "type": "wos"}, {"id": "(OPQA-898_hits[0].id)", "type": "patents"}, {"id": "(OPQA-898_hits[1].id)", "type": "patents"}, {"id": "(OPQA-897_hits[0].id)", "type": "posts"}, {"id": "(OPQA-897_hits[1].id)", "type": "posts"} ] }</t>
+  </si>
+  <si>
+    <t>status=200||(OPQA-896_hits[0].id).itemExists=true||(OPQA-896_hits[0].id).numberTotalContainers=2||(OPQA-896_hits[1].id).itemExists=true||(OPQA-896_hits[1].id).numberTotalContainers=2||(OPQA-896_hits[0].id).itemExists=true||(OPQA-897_hits[0].id).numberTotalContainers=2||(OPQA-896_hits[1].id).itemExists=true||(OPQA-897_hits[1].id).numberTotalContainers=2||(OPQA-898_hits[0].id).itemExists=true||(OPQA-896_hits[0].id).numberTotalContainers=2||(OPQA-898_hits[1].id).itemExists=true||(OPQA-896_hits[1].id).numberTotalContainers=2</t>
+  </si>
+  <si>
+    <t>{"documents":[{"docType":"file","id":"0B175X3HOM71HZm01eEM0dWRoMHM","name":"RCCStories_for QA.docx","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","url":"https://drive.google.com/file/d/0B175X3HOM71HZm01eEM0dWRoMHM/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"docType":"file","id":"0B175X3HOM71HYzQxSGpvUGNoTW8","name":"AddGDItem1TOWOS.docx","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","url":"https://drive.google.com/file/d/0B175X3HOM71HYzQxSGpvUGNoTW8/view?usp=drive_web"}, {"docType":"file","id":"0B175X3HOM71HLVBsSkFLUk51bXc","name":"AddGDItem2TOWOS.docx","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","url":"https://drive.google.com/file/d/0B175X3HOM71HLVBsSkFLUk51bXc/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.xlsx","desc":"Updated GD document for wos item through container API","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","id":"0B175X3HOM71HZm01eEM0dWRoMHM","url":"https://drive.google.com/file/d/0B175X3HOM71HZm01eEM0dWRoMHM/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.xlsx","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","id":"0B175X3HOM71HZm01eEM0dWRoMHM","url":"https://drive.google.com/file/d/0B175X3HOM71HZm01eEM0dWRoMHM/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>/container/items/contains/(OPQA-896_hits[0].id)</t>
+  </si>
+  <si>
+    <t>status=200||type=wos||id=(OPQA-896_hits[0].id)||||id=(OPQA-896_hits[1].id)</t>
+  </si>
+  <si>
+    <t>status=200||content_items.id=(OPQA-896_hits[0].id)||content_items.id=(OPQA-896_hits[1].id)||content_items.id=(OPQA-897_hits[0].id)||content_items.id=(OPQA-897_hits[1].id)||content_items.id=(OPQA-898_hits[0].id)||content_items.id=(OPQA-898_hits[1].id)</t>
+  </si>
+  <si>
+    <t>status=200||content_items.id=(OPQA-896_hits[0].id)||content_items.id=(OPQA-896_hits[1].id)||content_items[0].type=wos</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4043_id)/items/(OPQA-896_hits[0].id)</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4044_id)/items/(OPQA-896_hits[0].id)</t>
+  </si>
+  <si>
+    <t>status=200||(OPQA-896_hits[0].id).itemExists=false</t>
+  </si>
+  <si>
+    <t>status=200||(OPQA-896_hits[0].id).itemExists=true</t>
+  </si>
+  <si>
+    <t>{"documents":[{"docType":"file","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","name":"DOC-964580-IAM.pdf","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"docType":"file","id":"0B9w9MV6gmwPjS3Blam4xek5Zb1E","name":"DOC-964581-Authoring.pdf","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjS3Blam4xek5Zb1E/view?usp=drive_web"}, {"docType":"file","id":"0B9w9MV6gmwPjZDlyRFAyc0g5UWc","name":"DOC-968512-Search.pdf","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjZDlyRFAyc0g5UWc/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.pdf","desc":"Updated GD document for wos item through container API","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>{"documents":[{"name":"Updated_GD_doc_for_wos_item.xlsx","parent":"item","parentId":"(OPQA-896_hits[0].id)","parentType":"wos","id":"0B9w9MV6gmwPjMzZxRXAyV1RqeDA","url":"https://drive.google.com/file/d/0B9w9MV6gmwPjMzZxRXAyV1RqeDA/view?usp=drive_web"}]}</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-4043_1_id)/items/(OPQA-896_hits[0].id)</t>
+  </si>
+  <si>
+    <t>status=200||(OPQA-896_hits[0].id).itemExists=true||(OPQA-896_hits[1].id).itemExists=true||(OPQA-896_hits[0].id).itemExists=true||(OPQA-896_hits[1].id).itemExists=true||(OPQA-898_hits[0].id).itemExists=true||(OPQA-898_hits[1].id).itemExists=true</t>
+  </si>
+  <si>
+    <t>1PSEARCHV4</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L51"/>
     </sheetView>
   </sheetViews>
@@ -1513,1172 +1513,1172 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="60">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="45">
       <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F2"/>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2"/>
       <c r="J2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>62</v>
+        <v>314</v>
       </c>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="60">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="45">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>339</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F3"/>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3"/>
       <c r="J3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>62</v>
+        <v>314</v>
       </c>
       <c r="L3"/>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="60">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="45">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>339</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4"/>
       <c r="J4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>62</v>
+        <v>314</v>
       </c>
       <c r="L4"/>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" ht="15.75">
       <c r="A5" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>339</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5"/>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5"/>
       <c r="J5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>13</v>
+        <v>315</v>
       </c>
       <c r="L5"/>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" ht="47.25">
       <c r="A6" s="2" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6"/>
       <c r="J6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6"/>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" ht="360">
       <c r="A7" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7"/>
       <c r="H7" s="10" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A8" s="2" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G8"/>
       <c r="H8" s="10" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="2" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L8"/>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" ht="300">
       <c r="A9" s="2" t="s">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9"/>
       <c r="H9" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9"/>
     </row>
     <row r="10" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A10" s="2" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G10"/>
       <c r="H10" s="10" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A11" s="2" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G11"/>
       <c r="H11" s="10" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11"/>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="375">
       <c r="A12" s="2" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12"/>
       <c r="H12" s="10" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="K12" s="2"/>
       <c r="L12"/>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="375">
       <c r="A13" s="2" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G13"/>
       <c r="H13" s="10" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="75">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A14" s="2" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
     </row>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="30">
       <c r="A15" s="2" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="K15" s="2"/>
       <c r="L15"/>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A16" s="2" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G16"/>
       <c r="H16" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="L16"/>
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" ht="47.25">
       <c r="A17" s="2" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A18" s="2" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>50</v>
+        <v>317</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A19" s="2" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A20" s="2" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20"/>
     </row>
     <row r="21" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A21" s="2" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>51</v>
+        <v>318</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" s="1" customFormat="1" ht="105">
+    <row r="22" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A22" s="2" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K22"/>
       <c r="L22"/>
     </row>
-    <row r="23" spans="1:12" s="1" customFormat="1" ht="105">
+    <row r="23" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A23" s="2" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K23"/>
       <c r="L23"/>
     </row>
     <row r="24" spans="1:12" s="1" customFormat="1" ht="375">
       <c r="A24" s="2" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>97</v>
+        <v>320</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
     </row>
     <row r="25" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A25" s="2" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G25"/>
       <c r="H25" s="10" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
     </row>
     <row r="26" spans="1:12" s="1" customFormat="1" ht="180">
       <c r="A26" s="2" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26"/>
       <c r="H26" s="10" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
     </row>
     <row r="27" spans="1:12" s="1" customFormat="1" ht="120">
       <c r="A27" s="2" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="2" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
     </row>
     <row r="28" spans="1:12" s="1" customFormat="1" ht="105">
       <c r="A28" s="2" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G28"/>
       <c r="H28" s="10" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
     </row>
     <row r="29" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A29" s="2" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="G29"/>
       <c r="H29" s="10" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K29"/>
       <c r="L29"/>
     </row>
     <row r="30" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A30" s="2" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G30"/>
       <c r="H30" s="10" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K30"/>
       <c r="L30"/>
     </row>
     <row r="31" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A31" s="2" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G31"/>
       <c r="H31" s="10" t="s">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K31"/>
       <c r="L31"/>
     </row>
     <row r="32" spans="1:12" s="1" customFormat="1" ht="180">
       <c r="A32" s="2" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G32"/>
       <c r="H32" s="10" t="s">
-        <v>176</v>
+        <v>322</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K32"/>
       <c r="L32"/>
     </row>
     <row r="33" spans="1:12" s="1" customFormat="1" ht="120">
       <c r="A33" s="2" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G33"/>
       <c r="H33" s="10" t="s">
-        <v>178</v>
+        <v>323</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K33"/>
       <c r="L33"/>
     </row>
     <row r="34" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A34" s="2" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G34"/>
       <c r="H34" s="10" t="s">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K34"/>
       <c r="L34"/>
     </row>
     <row r="35" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A35" s="2" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="5" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35"/>
     </row>
     <row r="36" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A36" s="2" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="2" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="K36"/>
       <c r="L36"/>
     </row>
-    <row r="37" spans="1:12" s="1" customFormat="1" ht="105">
+    <row r="37" spans="1:12" s="1" customFormat="1" ht="120">
       <c r="A37" s="2" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G37"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>211</v>
+        <v>312</v>
       </c>
       <c r="K37"/>
       <c r="L37"/>
     </row>
     <row r="38" spans="1:12" s="1" customFormat="1" ht="60">
       <c r="A38" s="2" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>1</v>
@@ -2687,26 +2687,26 @@
       <c r="G38"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K38"/>
       <c r="L38"/>
     </row>
-    <row r="39" spans="1:12" s="1" customFormat="1" ht="60">
+    <row r="39" spans="1:12" s="1" customFormat="1" ht="45">
       <c r="A39" s="2" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>1</v>
@@ -2715,385 +2715,385 @@
       <c r="G39"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>56</v>
+        <v>326</v>
       </c>
       <c r="K39"/>
       <c r="L39"/>
     </row>
-    <row r="40" spans="1:12" s="1" customFormat="1" ht="195">
+    <row r="40" spans="1:12" s="1" customFormat="1" ht="180">
       <c r="A40" s="2" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>58</v>
+        <v>327</v>
       </c>
       <c r="K40"/>
       <c r="L40"/>
     </row>
     <row r="41" spans="1:12" s="1" customFormat="1" ht="90">
       <c r="A41" s="2" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F41" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>59</v>
+        <v>328</v>
       </c>
       <c r="K41"/>
       <c r="L41"/>
     </row>
     <row r="42" spans="1:12" s="1" customFormat="1" ht="75">
       <c r="A42" s="2" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="K42"/>
       <c r="L42"/>
     </row>
     <row r="43" spans="1:12" s="1" customFormat="1" ht="30">
       <c r="A43" s="2" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H43" s="2"/>
       <c r="I43" s="5" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K43"/>
       <c r="L43"/>
     </row>
     <row r="44" spans="1:12" s="1" customFormat="1" ht="45">
       <c r="A44" s="2" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="5" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K44"/>
       <c r="L44"/>
     </row>
     <row r="45" spans="1:12" s="1" customFormat="1" ht="30">
       <c r="A45" s="2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>236</v>
+        <v>330</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F45" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="5" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K45"/>
       <c r="L45"/>
     </row>
     <row r="46" spans="1:12" ht="75">
       <c r="A46" s="2" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>50</v>
+        <v>317</v>
       </c>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:12" ht="75">
       <c r="A47" s="2" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>50</v>
+        <v>317</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:12" ht="30">
       <c r="A48" s="2" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K48" s="2"/>
     </row>
     <row r="49" spans="1:11" ht="45">
       <c r="A49" s="2" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" ht="30">
       <c r="A50" s="2" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" ht="30">
       <c r="A51" s="2" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K51" s="1"/>
     </row>
@@ -3113,7 +3113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L41"/>
     </sheetView>
   </sheetViews>
@@ -3173,1233 +3173,1233 @@
     </row>
     <row r="2" spans="1:12" ht="409.5">
       <c r="A2" s="2" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="10" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45">
       <c r="A3" s="2" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="1" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="10" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" ht="75">
       <c r="A4" s="2" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="105">
       <c r="A5" s="2" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="10"/>
       <c r="I5" s="2" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="75">
       <c r="A6" s="2" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="75">
       <c r="A7" s="2" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="120">
       <c r="A8" s="2" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="2" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="60">
       <c r="A9" s="2" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="2" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="45">
       <c r="A10" s="2" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="2" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="105">
       <c r="A11" s="2" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="10"/>
       <c r="I11" s="2" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="60">
       <c r="A12" s="2" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="2" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="45">
       <c r="A13" s="2" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="2" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="45">
       <c r="A14" s="2" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="2" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="75">
       <c r="A15" s="2" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="2" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="75">
       <c r="A16" s="2" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="10" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" ht="75">
       <c r="A17" s="2" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>142</v>
+        <v>331</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" ht="75">
       <c r="A18" s="2" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="75">
       <c r="A19" s="2" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>146</v>
+        <v>332</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" ht="75">
       <c r="A20" s="2" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" ht="195">
       <c r="A21" s="2" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="G21" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>49</v>
+        <v>319</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>149</v>
+        <v>338</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="135">
       <c r="A22" s="2" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="10" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" ht="255">
       <c r="A23" s="2" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="10" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" ht="135">
       <c r="A24" s="2" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="2" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" ht="135">
       <c r="A25" s="2" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="10" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" ht="120">
       <c r="A26" s="2" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="10" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" ht="120">
       <c r="A27" s="2" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="10" t="s">
-        <v>191</v>
+        <v>333</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" ht="255">
+    <row r="28" spans="1:11" ht="225">
       <c r="A28" s="2" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="E28" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="10" t="s">
-        <v>198</v>
+        <v>334</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" ht="135">
+    <row r="29" spans="1:11" ht="120">
       <c r="A29" s="2" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="10" t="s">
-        <v>194</v>
+        <v>335</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" ht="120">
+    <row r="30" spans="1:11" ht="105">
       <c r="A30" s="2" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="10" t="s">
-        <v>196</v>
+        <v>336</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" ht="105">
       <c r="A31" s="2" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="10" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" ht="60">
       <c r="A32" s="2" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>1</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="2" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="120">
+    <row r="33" spans="1:11" ht="135">
       <c r="A33" s="2" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="2" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>225</v>
+        <v>313</v>
       </c>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="195">
+    <row r="34" spans="1:11" ht="180">
       <c r="A34" s="2" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="2" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>58</v>
+        <v>327</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="90">
       <c r="A35" s="2" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="2" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>59</v>
+        <v>328</v>
       </c>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="60">
       <c r="A36" s="2" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>226</v>
+        <v>337</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="5" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="75">
       <c r="A37" s="2" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>142</v>
+        <v>331</v>
       </c>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="90">
       <c r="A38" s="2" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>142</v>
+        <v>331</v>
       </c>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="60">
       <c r="A39" s="2" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="45">
       <c r="A40" s="2" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="2" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="45">
       <c r="A41" s="2" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K41" s="1"/>
     </row>

--- a/src/test/test-data/ProjectContainerTest.xlsx
+++ b/src/test/test-data/ProjectContainerTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="19440" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="19440" windowHeight="5385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project - Owner" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="340">
   <si>
     <t>API</t>
   </si>
@@ -1455,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3113,8 +3113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L41"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3380,7 +3380,9 @@
         <v>112</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="J8" s="2" t="s">
         <v>268</v>
       </c>
